--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_7_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_7_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>544267.7490908293</v>
+        <v>538630.4390965367</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16809088.05250721</v>
+        <v>16809088.05250722</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8775684.929852745</v>
+        <v>8775684.929852748</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>100.0791888769557</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>40.39502321397722</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>228.2601210751802</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>27.35334490128979</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>53.91886280864775</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>34.3347298374829</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
@@ -1110,19 +1110,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>143.1974930458129</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>196.1904261659812</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>19.89843046229006</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>288.3612118119556</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1302,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>122.1857609060766</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -1356,7 +1356,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>395.1216428253603</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -1384,10 +1384,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>403.4664492046432</v>
+        <v>201.3081767654049</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>295.7705310992044</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>107.1631593534817</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>214.8428175635996</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>150.101000206552</v>
       </c>
       <c r="F13" t="n">
-        <v>83.90168132945433</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.0510235443431</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>143.4270840994813</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>99.33835950151285</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>60.73028694681985</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>175.3460544540683</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>234.9021070775794</v>
@@ -1596,7 +1596,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1609,19 +1609,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>389.4219655653857</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>182.9264068771992</v>
       </c>
       <c r="G14" t="n">
-        <v>403.4664492046432</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.3959226581688</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>136.2215223140668</v>
       </c>
       <c r="F16" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>165.0510235443431</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>143.4270840994813</v>
       </c>
       <c r="I16" t="n">
-        <v>96.91394273900229</v>
+        <v>99.33835950151285</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>60.73028694681985</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>175.3460544540683</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>234.9021070775794</v>
@@ -1830,7 +1830,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>103.0149296463892</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -1858,7 +1858,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>403.1926288202443</v>
+        <v>85.14117201741952</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>100.9234773439921</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2007,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>96.4529147719925</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>123.8168596352956</v>
       </c>
       <c r="G19" t="n">
-        <v>164.9281971465051</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.3350457623403</v>
@@ -2067,10 +2067,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>105.788267858764</v>
+        <v>301.5866181192567</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>100.9234773439921</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>213.6441688308935</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2241,25 +2241,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.9281971465051</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>139.1726067366317</v>
+        <v>12.60757242987588</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>95.64463473744092</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>173.2055253208379</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>234.3773033777264</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9347283420349</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -2335,10 +2335,10 @@
         <v>403.1926288202443</v>
       </c>
       <c r="H23" t="n">
-        <v>292.9662680874794</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>29.64986633739581</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>213.6441688308935</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.3740170274168</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>57.46492270449826</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>312.4644915485781</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>96.76946668373473</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.9281971465051</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3350457623403</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>95.64463473744092</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>55.20756545857928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>173.2055253208379</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.36269861748237</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>9.653922695312644</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -2569,7 +2569,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>403.1926288202443</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>100.9234773439921</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>213.6441688308935</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.3740170274168</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>119.0577748656455</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2718,22 +2718,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.9281971465051</v>
+        <v>1.1248319462943</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3350457623403</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>95.64463473744092</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>55.20756545857928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>173.2055253208379</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>234.3773033777264</v>
       </c>
       <c r="U28" t="n">
         <v>279.9347283420349</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>209.121122629765</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
@@ -2797,16 +2797,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>215.0449141177557</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>403.1926288202443</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>100.9234773439921</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>213.6441688308935</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>159.7375116904447</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2955,10 +2955,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
@@ -2967,10 +2967,10 @@
         <v>164.9281971465051</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3350457623403</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>95.64463473744092</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20756545857928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>173.2055253208379</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>234.3773033777264</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9347283420349</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>220.2056909135214</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>164.5503218526763</v>
       </c>
     </row>
     <row r="32">
@@ -3037,10 +3037,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>100.9234773439921</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>38.31744159476589</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>105.7882678587637</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
@@ -3204,7 +3204,7 @@
         <v>164.9281971465051</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3350457623403</v>
+        <v>28.41696821327912</v>
       </c>
       <c r="I34" t="n">
         <v>95.64463473744092</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>55.20756545857928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>173.2055253208379</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>234.3773033777264</v>
       </c>
       <c r="U34" t="n">
         <v>279.9347283420349</v>
@@ -3249,13 +3249,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>127.5728401056495</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3268,10 +3268,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>103.0149296463896</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -3280,10 +3280,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>403.1926288202443</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>292.9662680874794</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>100.9234773439921</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>213.6441688308935</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>304.696988984132</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>41.56190122515613</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>123.8168596352956</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3350457623403</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>55.20756545857928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>173.2055253208379</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>225.1213546133979</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>146.1776622149094</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -3666,22 +3666,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>164.9281971465051</v>
+        <v>106.9901773740584</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3350457623403</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>95.64463473744092</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>55.20756545857928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>173.2055253208379</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>234.3773033777264</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9347283420349</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>221.7888110547084</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>300.9601739452563</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>403.1926288202443</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>292.9662680874794</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>100.9234773439921</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.3740170274168</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>103.0149296463901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3900,7 +3900,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>50.71494908292568</v>
+        <v>164.9281971465051</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>95.64463473744092</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>173.2055253208379</v>
+        <v>95.96049700157066</v>
       </c>
       <c r="T43" t="n">
-        <v>234.3773033777264</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>279.9347283420349</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3979,10 +3979,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>295.3941055953574</v>
       </c>
       <c r="D44" t="n">
-        <v>103.0149296463892</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>213.6441688308935</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3350457623403</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>173.2055253208379</v>
+        <v>2.65887444503835</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>234.3773033777264</v>
       </c>
       <c r="U46" t="n">
-        <v>130.8952785622986</v>
+        <v>279.9347283420349</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142.8551754043048</v>
+        <v>451.8896763163319</v>
       </c>
       <c r="C2" t="n">
         <v>41.76508562960205</v>
@@ -4330,25 +4330,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M2" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N2" t="n">
-        <v>692.8507596625949</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O2" t="n">
-        <v>1209.69369432892</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P2" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q2" t="n">
         <v>2047.697635790537</v>
@@ -4366,16 +4366,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1738.416726816583</v>
+        <v>2047.45122772861</v>
       </c>
       <c r="W2" t="n">
-        <v>1354.656425951752</v>
+        <v>1663.690926863779</v>
       </c>
       <c r="X2" t="n">
-        <v>954.0130281207041</v>
+        <v>1263.047529032731</v>
       </c>
       <c r="Y2" t="n">
-        <v>553.0763550687942</v>
+        <v>862.1108559808214</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L3" t="n">
-        <v>41.76508562960225</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M3" t="n">
-        <v>158.3214934345131</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="N3" t="n">
-        <v>675.1644281008383</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O3" t="n">
-        <v>1192.007362767164</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433489</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q3" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1648.189235160388</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
-        <v>1477.095862722105</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>1317.601218045015</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>1156.690402913334</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>992.0592770239257</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>824.8088859494691</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>675.2014307549257</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>2088.254281480102</v>
+        <v>1340.598203386633</v>
       </c>
       <c r="U4" t="n">
-        <v>2088.254281480102</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V4" t="n">
-        <v>2088.254281480102</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W4" t="n">
-        <v>2088.254281480102</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X4" t="n">
-        <v>2060.624640165668</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y4" t="n">
-        <v>1835.888941554433</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>997.1688666927112</v>
+        <v>1320.545542556572</v>
       </c>
       <c r="C5" t="n">
-        <v>587.0442760059813</v>
+        <v>1320.545542556572</v>
       </c>
       <c r="D5" t="n">
-        <v>182.5803460990418</v>
+        <v>1320.545542556572</v>
       </c>
       <c r="E5" t="n">
-        <v>182.5803460990418</v>
+        <v>906.2053270734691</v>
       </c>
       <c r="F5" t="n">
-        <v>182.5803460990418</v>
+        <v>485.1749150271567</v>
       </c>
       <c r="G5" t="n">
-        <v>182.5803460990418</v>
+        <v>76.44663091998882</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>76.44663091998882</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4570,25 +4570,25 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1688317915616</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>1014.011766457887</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M5" t="n">
-        <v>1530.854701124212</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4603,16 +4603,16 @@
         <v>1730.766722221062</v>
       </c>
       <c r="V5" t="n">
-        <v>1380.929167557543</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W5" t="n">
-        <v>997.1688666927112</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X5" t="n">
-        <v>997.1688666927112</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="Y5" t="n">
-        <v>997.1688666927112</v>
+        <v>1730.766722221062</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>675.1644281008383</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O6" t="n">
-        <v>1192.007362767164</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433489</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>358.622931898602</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="C7" t="n">
-        <v>358.622931898602</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="D7" t="n">
-        <v>358.622931898602</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="E7" t="n">
-        <v>358.622931898602</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="F7" t="n">
-        <v>358.622931898602</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U7" t="n">
-        <v>777.1526093285881</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="V7" t="n">
-        <v>503.2668642681101</v>
+        <v>871.3377300465861</v>
       </c>
       <c r="W7" t="n">
-        <v>358.622931898602</v>
+        <v>592.2680655554605</v>
       </c>
       <c r="X7" t="n">
-        <v>358.622931898602</v>
+        <v>592.2680655554605</v>
       </c>
       <c r="Y7" t="n">
-        <v>358.622931898602</v>
+        <v>394.0959179130552</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>876.4530309326553</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="C8" t="n">
-        <v>466.3284402459254</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="D8" t="n">
-        <v>61.86451033898595</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="E8" t="n">
-        <v>41.76508562960205</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="F8" t="n">
-        <v>41.76508562960205</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H8" t="n">
         <v>41.76508562960205</v>
@@ -4804,52 +4804,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L8" t="n">
-        <v>692.8507596625949</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M8" t="n">
-        <v>1209.69369432892</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N8" t="n">
-        <v>1726.536628995245</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="O8" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P8" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X8" t="n">
-        <v>1687.610883649055</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="Y8" t="n">
-        <v>1286.674210597145</v>
+        <v>1182.432279155364</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I9" t="n">
         <v>41.76508562960205</v>
@@ -4889,22 +4889,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>704.7239474634679</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M9" t="n">
-        <v>1221.566882129793</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N9" t="n">
-        <v>1221.566882129793</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O9" t="n">
-        <v>1221.566882129793</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P9" t="n">
-        <v>1738.409816796118</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4919,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.76508562960205</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="C10" t="n">
-        <v>41.76508562960205</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="D10" t="n">
-        <v>41.76508562960205</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960205</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G10" t="n">
         <v>41.76508562960205</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1447.744021739263</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1447.744021739263</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1526093285881</v>
+        <v>1164.945874285388</v>
       </c>
       <c r="V10" t="n">
-        <v>503.2668642681101</v>
+        <v>891.0601292249096</v>
       </c>
       <c r="W10" t="n">
-        <v>224.1971997769844</v>
+        <v>611.9904647337839</v>
       </c>
       <c r="X10" t="n">
-        <v>41.76508562960205</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.76508562960205</v>
+        <v>373.6466025934674</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1689.141510949435</v>
+        <v>1379.235418072765</v>
       </c>
       <c r="C11" t="n">
-        <v>1689.141510949435</v>
+        <v>1379.235418072765</v>
       </c>
       <c r="D11" t="n">
-        <v>1284.677581042496</v>
+        <v>1379.235418072765</v>
       </c>
       <c r="E11" t="n">
-        <v>870.3373655593925</v>
+        <v>964.8952025896613</v>
       </c>
       <c r="F11" t="n">
-        <v>449.30695351308</v>
+        <v>543.8647905433488</v>
       </c>
       <c r="G11" t="n">
-        <v>41.76508562960205</v>
+        <v>340.5231978510207</v>
       </c>
       <c r="H11" t="n">
         <v>41.76508562960205</v>
@@ -5041,52 +5041,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J11" t="n">
-        <v>149.8586930753127</v>
+        <v>231.8793626107648</v>
       </c>
       <c r="K11" t="n">
-        <v>209.5270198179994</v>
+        <v>291.5476893534516</v>
       </c>
       <c r="L11" t="n">
-        <v>726.3699544843247</v>
+        <v>380.5167384645899</v>
       </c>
       <c r="M11" t="n">
-        <v>1243.21288915065</v>
+        <v>492.3380702661043</v>
       </c>
       <c r="N11" t="n">
-        <v>1760.055823816975</v>
+        <v>607.8373805151977</v>
       </c>
       <c r="O11" t="n">
-        <v>1863.717766505134</v>
+        <v>1124.680315181523</v>
       </c>
       <c r="P11" t="n">
-        <v>1938.217930937796</v>
+        <v>1641.523249847848</v>
       </c>
       <c r="Q11" t="n">
-        <v>1974.654489419598</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R11" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S11" t="n">
-        <v>2088.254281480102</v>
+        <v>1980.008665971535</v>
       </c>
       <c r="T11" t="n">
-        <v>2088.254281480102</v>
+        <v>1762.995718937596</v>
       </c>
       <c r="U11" t="n">
-        <v>2088.254281480102</v>
+        <v>1762.995718937596</v>
       </c>
       <c r="V11" t="n">
-        <v>2088.254281480102</v>
+        <v>1762.995718937596</v>
       </c>
       <c r="W11" t="n">
-        <v>2088.254281480102</v>
+        <v>1379.235418072765</v>
       </c>
       <c r="X11" t="n">
-        <v>2088.254281480102</v>
+        <v>1379.235418072765</v>
       </c>
       <c r="Y11" t="n">
-        <v>2088.254281480102</v>
+        <v>1379.235418072765</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>41.76508562960205</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960205</v>
+        <v>42.85012515427463</v>
       </c>
       <c r="J12" t="n">
-        <v>293.3580743661004</v>
+        <v>294.443113890773</v>
       </c>
       <c r="K12" t="n">
-        <v>338.5551559470125</v>
+        <v>811.2860485570983</v>
       </c>
       <c r="L12" t="n">
-        <v>731.400469390315</v>
+        <v>890.8197315767719</v>
       </c>
       <c r="M12" t="n">
-        <v>832.0520577225666</v>
+        <v>991.4713199090235</v>
       </c>
       <c r="N12" t="n">
-        <v>941.2030952907021</v>
+        <v>1461.146281665832</v>
       </c>
       <c r="O12" t="n">
-        <v>1032.055953223994</v>
+        <v>1551.999139599124</v>
       </c>
       <c r="P12" t="n">
-        <v>1548.89888789032</v>
+        <v>1617.086675991506</v>
       </c>
       <c r="Q12" t="n">
-        <v>1978.161064736421</v>
+        <v>2046.348852837607</v>
       </c>
       <c r="R12" t="n">
         <v>2046.348852837607</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>538.4500840889875</v>
+        <v>364.4756299936956</v>
       </c>
       <c r="C13" t="n">
-        <v>538.4500840889875</v>
+        <v>193.3822575554121</v>
       </c>
       <c r="D13" t="n">
-        <v>538.4500840889875</v>
+        <v>193.3822575554121</v>
       </c>
       <c r="E13" t="n">
-        <v>538.4500840889875</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F13" t="n">
-        <v>453.7009110289326</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G13" t="n">
-        <v>286.9827054285861</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H13" t="n">
-        <v>142.1068629038575</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I13" t="n">
         <v>41.76508562960205</v>
@@ -5223,28 +5223,28 @@
         <v>2088.254281480102</v>
       </c>
       <c r="R13" t="n">
-        <v>2026.910557291395</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S13" t="n">
-        <v>1849.793330570114</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T13" t="n">
-        <v>1612.518474936196</v>
+        <v>1850.979425846184</v>
       </c>
       <c r="U13" t="n">
-        <v>1329.749355780908</v>
+        <v>1568.210306690896</v>
       </c>
       <c r="V13" t="n">
-        <v>1055.86361072043</v>
+        <v>1294.324561630418</v>
       </c>
       <c r="W13" t="n">
-        <v>776.7939462293041</v>
+        <v>1015.254897139292</v>
       </c>
       <c r="X13" t="n">
-        <v>538.4500840889875</v>
+        <v>776.9110349989753</v>
       </c>
       <c r="Y13" t="n">
-        <v>538.4500840889875</v>
+        <v>552.17533638774</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1678.033101815613</v>
+        <v>636.6638246771392</v>
       </c>
       <c r="C14" t="n">
-        <v>1284.677581042496</v>
+        <v>226.5392339904093</v>
       </c>
       <c r="D14" t="n">
-        <v>1284.677581042496</v>
+        <v>226.5392339904093</v>
       </c>
       <c r="E14" t="n">
-        <v>870.3373655593925</v>
+        <v>226.5392339904093</v>
       </c>
       <c r="F14" t="n">
-        <v>449.30695351308</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G14" t="n">
         <v>41.76508562960205</v>
@@ -5281,16 +5281,16 @@
         <v>67.86648185510973</v>
       </c>
       <c r="K14" t="n">
-        <v>127.5348085977965</v>
+        <v>584.7094165214351</v>
       </c>
       <c r="L14" t="n">
-        <v>426.7887545666633</v>
+        <v>1101.55235118776</v>
       </c>
       <c r="M14" t="n">
-        <v>943.6316892329886</v>
+        <v>1618.395285854086</v>
       </c>
       <c r="N14" t="n">
-        <v>1460.474623899314</v>
+        <v>1873.65561587748</v>
       </c>
       <c r="O14" t="n">
         <v>1977.317558565639</v>
@@ -5311,19 +5311,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U14" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.288703037508</v>
       </c>
       <c r="V14" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.288703037508</v>
       </c>
       <c r="W14" t="n">
-        <v>2088.254281480102</v>
+        <v>1447.528402172676</v>
       </c>
       <c r="X14" t="n">
-        <v>2088.254281480102</v>
+        <v>1046.885004341629</v>
       </c>
       <c r="Y14" t="n">
-        <v>2088.254281480102</v>
+        <v>1046.885004341629</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J15" t="n">
-        <v>49.68967039146718</v>
+        <v>293.3580743661004</v>
       </c>
       <c r="K15" t="n">
-        <v>262.7254030959166</v>
+        <v>695.9302875463951</v>
       </c>
       <c r="L15" t="n">
-        <v>779.5683377622419</v>
+        <v>775.4639705660687</v>
       </c>
       <c r="M15" t="n">
-        <v>880.2199260944934</v>
+        <v>876.1155588983203</v>
       </c>
       <c r="N15" t="n">
-        <v>989.3709636626289</v>
+        <v>1392.958493564646</v>
       </c>
       <c r="O15" t="n">
-        <v>1506.213898328954</v>
+        <v>1483.811351497938</v>
       </c>
       <c r="P15" t="n">
-        <v>2023.05683299528</v>
+        <v>1548.89888789032</v>
       </c>
       <c r="Q15" t="n">
-        <v>2046.348852837607</v>
+        <v>1978.161064736421</v>
       </c>
       <c r="R15" t="n">
         <v>2046.348852837607</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>776.7939462293041</v>
+        <v>589.2113286049309</v>
       </c>
       <c r="C16" t="n">
-        <v>776.7939462293041</v>
+        <v>589.2113286049309</v>
       </c>
       <c r="D16" t="n">
-        <v>776.7939462293041</v>
+        <v>589.2113286049309</v>
       </c>
       <c r="E16" t="n">
-        <v>615.8831310976236</v>
+        <v>451.6138313179948</v>
       </c>
       <c r="F16" t="n">
-        <v>451.2520052082149</v>
+        <v>286.9827054285861</v>
       </c>
       <c r="G16" t="n">
-        <v>284.5337996078683</v>
+        <v>286.9827054285861</v>
       </c>
       <c r="H16" t="n">
-        <v>139.6579570831397</v>
+        <v>142.1068629038575</v>
       </c>
       <c r="I16" t="n">
         <v>41.76508562960205</v>
@@ -5460,28 +5460,28 @@
         <v>2088.254281480102</v>
       </c>
       <c r="R16" t="n">
-        <v>2026.910557291395</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S16" t="n">
-        <v>1849.793330570114</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T16" t="n">
-        <v>1612.518474936196</v>
+        <v>1850.979425846184</v>
       </c>
       <c r="U16" t="n">
-        <v>1329.749355780908</v>
+        <v>1568.210306690896</v>
       </c>
       <c r="V16" t="n">
-        <v>1055.86361072043</v>
+        <v>1294.324561630418</v>
       </c>
       <c r="W16" t="n">
-        <v>776.7939462293041</v>
+        <v>1015.254897139292</v>
       </c>
       <c r="X16" t="n">
-        <v>776.7939462293041</v>
+        <v>776.9110349989753</v>
       </c>
       <c r="Y16" t="n">
-        <v>776.7939462293041</v>
+        <v>776.9110349989753</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1801.041232589131</v>
+        <v>1375.721650317197</v>
       </c>
       <c r="C17" t="n">
-        <v>1390.916641902401</v>
+        <v>965.5970596304675</v>
       </c>
       <c r="D17" t="n">
-        <v>1286.861157411099</v>
+        <v>965.5970596304675</v>
       </c>
       <c r="E17" t="n">
-        <v>872.5209419279953</v>
+        <v>551.2568441473642</v>
       </c>
       <c r="F17" t="n">
-        <v>451.4905298816828</v>
+        <v>130.2264321010517</v>
       </c>
       <c r="G17" t="n">
         <v>44.22524824507241</v>
@@ -5521,46 +5521,46 @@
         <v>187.4854023598976</v>
       </c>
       <c r="L17" t="n">
-        <v>734.7728493926687</v>
+        <v>657.5306145097846</v>
       </c>
       <c r="M17" t="n">
-        <v>894.1938401305429</v>
+        <v>1204.818061542556</v>
       </c>
       <c r="N17" t="n">
-        <v>1058.063021561498</v>
+        <v>1752.105508575327</v>
       </c>
       <c r="O17" t="n">
-        <v>1207.399261998626</v>
+        <v>1901.441749012455</v>
       </c>
       <c r="P17" t="n">
-        <v>1731.625063787324</v>
+        <v>2014.923869861636</v>
       </c>
       <c r="Q17" t="n">
-        <v>2207.629921244975</v>
+        <v>2080.634254168835</v>
       </c>
       <c r="R17" t="n">
-        <v>2211.26241225362</v>
+        <v>2211.262412253621</v>
       </c>
       <c r="S17" t="n">
-        <v>2211.26241225362</v>
+        <v>2109.319505845548</v>
       </c>
       <c r="T17" t="n">
-        <v>2211.26241225362</v>
+        <v>2109.319505845548</v>
       </c>
       <c r="U17" t="n">
-        <v>2211.26241225362</v>
+        <v>2109.319505845548</v>
       </c>
       <c r="V17" t="n">
-        <v>2211.26241225362</v>
+        <v>1759.481951182029</v>
       </c>
       <c r="W17" t="n">
-        <v>2211.26241225362</v>
+        <v>1375.721650317197</v>
       </c>
       <c r="X17" t="n">
-        <v>2211.26241225362</v>
+        <v>1375.721650317197</v>
       </c>
       <c r="Y17" t="n">
-        <v>2211.26241225362</v>
+        <v>1375.721650317197</v>
       </c>
     </row>
     <row r="18">
@@ -5597,25 +5597,25 @@
         <v>65.85309797174023</v>
       </c>
       <c r="K18" t="n">
-        <v>613.1405450045113</v>
+        <v>613.1405450045114</v>
       </c>
       <c r="L18" t="n">
-        <v>724.1667368251949</v>
+        <v>724.166736825195</v>
       </c>
       <c r="M18" t="n">
-        <v>861.5685975225479</v>
+        <v>861.5685975225481</v>
       </c>
       <c r="N18" t="n">
-        <v>1252.227774892637</v>
+        <v>1008.442577811441</v>
       </c>
       <c r="O18" t="n">
-        <v>1377.58975564036</v>
+        <v>1133.804558559164</v>
       </c>
       <c r="P18" t="n">
-        <v>1924.877202673131</v>
+        <v>1596.100145447891</v>
       </c>
       <c r="Q18" t="n">
-        <v>1966.683675119126</v>
+        <v>2043.87677489766</v>
       </c>
       <c r="R18" t="n">
         <v>2043.87677489766</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>776.1451174790843</v>
+        <v>313.0655567275329</v>
       </c>
       <c r="C19" t="n">
-        <v>776.1451174790843</v>
+        <v>313.0655567275329</v>
       </c>
       <c r="D19" t="n">
-        <v>616.6504728019943</v>
+        <v>313.0655567275329</v>
       </c>
       <c r="E19" t="n">
-        <v>519.223286163618</v>
+        <v>313.0655567275329</v>
       </c>
       <c r="F19" t="n">
-        <v>354.5921602742092</v>
+        <v>187.9980217423859</v>
       </c>
       <c r="G19" t="n">
         <v>187.9980217423859</v>
@@ -5679,7 +5679,7 @@
         <v>333.0612245260185</v>
       </c>
       <c r="L19" t="n">
-        <v>688.5835996786917</v>
+        <v>688.5835996786923</v>
       </c>
       <c r="M19" t="n">
         <v>1078.67110081947</v>
@@ -5694,10 +5694,10 @@
         <v>2091.875729714676</v>
       </c>
       <c r="Q19" t="n">
-        <v>2211.26241225362</v>
+        <v>2211.262412253621</v>
       </c>
       <c r="R19" t="n">
-        <v>2211.26241225362</v>
+        <v>2211.262412253621</v>
       </c>
       <c r="S19" t="n">
         <v>2036.307336171966</v>
@@ -5706,19 +5706,19 @@
         <v>1799.562585285374</v>
       </c>
       <c r="U19" t="n">
-        <v>1516.800233424732</v>
+        <v>1516.800233424733</v>
       </c>
       <c r="V19" t="n">
-        <v>1242.914488364254</v>
+        <v>1242.914488364255</v>
       </c>
       <c r="W19" t="n">
-        <v>963.8448238731287</v>
+        <v>963.8448238731291</v>
       </c>
       <c r="X19" t="n">
-        <v>963.8448238731287</v>
+        <v>725.5009617328126</v>
       </c>
       <c r="Y19" t="n">
-        <v>963.8448238731287</v>
+        <v>500.7652631215773</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1801.041232589131</v>
+        <v>758.9827865270112</v>
       </c>
       <c r="C20" t="n">
-        <v>1390.916641902401</v>
+        <v>348.8581958402813</v>
       </c>
       <c r="D20" t="n">
-        <v>986.4527119954619</v>
+        <v>348.8581958402813</v>
       </c>
       <c r="E20" t="n">
-        <v>572.1124965123586</v>
+        <v>348.8581958402813</v>
       </c>
       <c r="F20" t="n">
-        <v>151.0820844660461</v>
+        <v>348.8581958402813</v>
       </c>
       <c r="G20" t="n">
         <v>44.22524824507241</v>
@@ -5761,43 +5761,43 @@
         <v>646.0090795666816</v>
       </c>
       <c r="M20" t="n">
-        <v>1177.941853993919</v>
+        <v>805.4300703045558</v>
       </c>
       <c r="N20" t="n">
-        <v>1341.811035424874</v>
+        <v>969.2992517355106</v>
       </c>
       <c r="O20" t="n">
-        <v>1491.147275862002</v>
+        <v>1184.337616754553</v>
       </c>
       <c r="P20" t="n">
-        <v>1604.629396711184</v>
+        <v>1731.625063787324</v>
       </c>
       <c r="Q20" t="n">
-        <v>2080.634254168835</v>
+        <v>2207.629921244976</v>
       </c>
       <c r="R20" t="n">
         <v>2211.262412253621</v>
       </c>
       <c r="S20" t="n">
-        <v>2211.262412253621</v>
+        <v>2109.319505845548</v>
       </c>
       <c r="T20" t="n">
-        <v>2211.262412253621</v>
+        <v>1893.517315107272</v>
       </c>
       <c r="U20" t="n">
-        <v>2211.262412253621</v>
+        <v>1893.517315107272</v>
       </c>
       <c r="V20" t="n">
-        <v>2211.262412253621</v>
+        <v>1543.679760443752</v>
       </c>
       <c r="W20" t="n">
-        <v>2211.262412253621</v>
+        <v>1159.919459578921</v>
       </c>
       <c r="X20" t="n">
-        <v>2211.262412253621</v>
+        <v>1159.919459578921</v>
       </c>
       <c r="Y20" t="n">
-        <v>2211.262412253621</v>
+        <v>758.9827865270112</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>44.22524824507241</v>
       </c>
       <c r="I21" t="n">
-        <v>44.22524824507241</v>
+        <v>50.30404989655902</v>
       </c>
       <c r="J21" t="n">
-        <v>87.77947567400524</v>
+        <v>315.6003035978601</v>
       </c>
       <c r="K21" t="n">
-        <v>156.3976197036959</v>
+        <v>505.0454155418549</v>
       </c>
       <c r="L21" t="n">
-        <v>267.4238115243795</v>
+        <v>616.0716073625385</v>
       </c>
       <c r="M21" t="n">
-        <v>814.7112585571507</v>
+        <v>753.4734680598916</v>
       </c>
       <c r="N21" t="n">
-        <v>1361.998705589922</v>
+        <v>1300.760915092663</v>
       </c>
       <c r="O21" t="n">
-        <v>1909.286152622693</v>
+        <v>1426.122895840386</v>
       </c>
       <c r="P21" t="n">
-        <v>2002.070302451665</v>
+        <v>1518.907045669357</v>
       </c>
       <c r="Q21" t="n">
-        <v>2043.87677489766</v>
+        <v>1966.683675119126</v>
       </c>
       <c r="R21" t="n">
         <v>2043.87677489766</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1007.527735556421</v>
+        <v>313.0655567275329</v>
       </c>
       <c r="C22" t="n">
-        <v>836.4343631181373</v>
+        <v>313.0655567275329</v>
       </c>
       <c r="D22" t="n">
-        <v>676.9397184410473</v>
+        <v>153.5709120504429</v>
       </c>
       <c r="E22" t="n">
-        <v>516.0289033093668</v>
+        <v>153.5709120504429</v>
       </c>
       <c r="F22" t="n">
-        <v>351.3977774199581</v>
+        <v>153.5709120504429</v>
       </c>
       <c r="G22" t="n">
-        <v>184.8036388881347</v>
+        <v>153.5709120504429</v>
       </c>
       <c r="H22" t="n">
-        <v>44.22524824507241</v>
+        <v>140.8359904041037</v>
       </c>
       <c r="I22" t="n">
         <v>44.22524824507241</v>
       </c>
       <c r="J22" t="n">
-        <v>103.7815510246446</v>
+        <v>103.7815510246445</v>
       </c>
       <c r="K22" t="n">
-        <v>333.0612245260187</v>
+        <v>333.0612245260185</v>
       </c>
       <c r="L22" t="n">
-        <v>688.5835996786918</v>
+        <v>688.5835996786923</v>
       </c>
       <c r="M22" t="n">
         <v>1078.67110081947</v>
@@ -5937,25 +5937,25 @@
         <v>2211.262412253621</v>
       </c>
       <c r="S22" t="n">
-        <v>2211.262412253621</v>
+        <v>2036.307336171966</v>
       </c>
       <c r="T22" t="n">
-        <v>2211.262412253621</v>
+        <v>1799.562585285374</v>
       </c>
       <c r="U22" t="n">
-        <v>2211.262412253621</v>
+        <v>1516.800233424733</v>
       </c>
       <c r="V22" t="n">
-        <v>1937.376667193143</v>
+        <v>1242.914488364255</v>
       </c>
       <c r="W22" t="n">
-        <v>1658.307002702017</v>
+        <v>963.8448238731291</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.963140561701</v>
+        <v>725.5009617328126</v>
       </c>
       <c r="Y22" t="n">
-        <v>1195.227441950465</v>
+        <v>500.7652631215773</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2439.140286955056</v>
+        <v>2173.164123571134</v>
       </c>
       <c r="C23" t="n">
-        <v>2029.015696268326</v>
+        <v>1763.039532884404</v>
       </c>
       <c r="D23" t="n">
-        <v>1624.551766361387</v>
+        <v>1358.575602977464</v>
       </c>
       <c r="E23" t="n">
-        <v>1210.211550878284</v>
+        <v>944.2353874943608</v>
       </c>
       <c r="F23" t="n">
-        <v>789.1811388319711</v>
+        <v>523.2049754480483</v>
       </c>
       <c r="G23" t="n">
-        <v>381.9158571953607</v>
+        <v>115.9396938114379</v>
       </c>
       <c r="H23" t="n">
-        <v>85.99033387467448</v>
+        <v>115.9396938114379</v>
       </c>
       <c r="I23" t="n">
         <v>85.99033387467448</v>
       </c>
       <c r="J23" t="n">
-        <v>135.0994913220532</v>
+        <v>461.8753182097823</v>
       </c>
       <c r="K23" t="n">
-        <v>766.3132962341068</v>
+        <v>556.0263148772289</v>
       </c>
       <c r="L23" t="n">
-        <v>898.0611465531617</v>
+        <v>1494.896109090738</v>
       </c>
       <c r="M23" t="n">
-        <v>1926.158050495265</v>
+        <v>2522.993013032841</v>
       </c>
       <c r="N23" t="n">
-        <v>2935.191416413891</v>
+        <v>3532.026378951467</v>
       </c>
       <c r="O23" t="n">
-        <v>3084.527656851019</v>
+        <v>3681.362619388595</v>
       </c>
       <c r="P23" t="n">
-        <v>3819.879345267427</v>
+        <v>3794.844740237776</v>
       </c>
       <c r="Q23" t="n">
-        <v>4295.884202725078</v>
+        <v>4168.888535648937</v>
       </c>
       <c r="R23" t="n">
         <v>4299.516693733724</v>
@@ -6019,22 +6019,22 @@
         <v>4299.516693733724</v>
       </c>
       <c r="T23" t="n">
-        <v>4299.516693733724</v>
+        <v>4083.714502995447</v>
       </c>
       <c r="U23" t="n">
-        <v>4299.516693733724</v>
+        <v>3826.771051452602</v>
       </c>
       <c r="V23" t="n">
-        <v>3949.679139070204</v>
+        <v>3768.725674983412</v>
       </c>
       <c r="W23" t="n">
-        <v>3565.918838205373</v>
+        <v>3384.96537411858</v>
       </c>
       <c r="X23" t="n">
-        <v>3250.298139671455</v>
+        <v>2984.321976287533</v>
       </c>
       <c r="Y23" t="n">
-        <v>2849.361466619545</v>
+        <v>2583.385303235623</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>85.99033387467448</v>
       </c>
       <c r="I24" t="n">
-        <v>85.99033387467448</v>
+        <v>92.06913552616108</v>
       </c>
       <c r="J24" t="n">
-        <v>107.6181836013423</v>
+        <v>357.3653892274621</v>
       </c>
       <c r="K24" t="n">
-        <v>176.236327631033</v>
+        <v>425.9835332571528</v>
       </c>
       <c r="L24" t="n">
-        <v>564.2545951441932</v>
+        <v>1253.651275569865</v>
       </c>
       <c r="M24" t="n">
-        <v>1601.622177437146</v>
+        <v>1391.053136267218</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.496157726039</v>
+        <v>1537.927116556111</v>
       </c>
       <c r="O24" t="n">
-        <v>1873.858138473762</v>
+        <v>1663.289097303834</v>
       </c>
       <c r="P24" t="n">
-        <v>1966.642288302734</v>
+        <v>1756.073247132806</v>
       </c>
       <c r="Q24" t="n">
         <v>2008.448760748729</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>657.5991139522513</v>
+        <v>354.8306423571345</v>
       </c>
       <c r="C25" t="n">
-        <v>657.5991139522513</v>
+        <v>183.737269918851</v>
       </c>
       <c r="D25" t="n">
-        <v>657.5991139522513</v>
+        <v>183.737269918851</v>
       </c>
       <c r="E25" t="n">
-        <v>657.5991139522513</v>
+        <v>85.99033387467448</v>
       </c>
       <c r="F25" t="n">
-        <v>492.9679880628426</v>
+        <v>85.99033387467448</v>
       </c>
       <c r="G25" t="n">
-        <v>326.3738495310192</v>
+        <v>85.99033387467448</v>
       </c>
       <c r="H25" t="n">
-        <v>182.6010760337057</v>
+        <v>85.99033387467448</v>
       </c>
       <c r="I25" t="n">
         <v>85.99033387467448</v>
@@ -6171,28 +6171,28 @@
         <v>2253.027497883223</v>
       </c>
       <c r="R25" t="n">
-        <v>2197.262280248294</v>
+        <v>2253.027497883223</v>
       </c>
       <c r="S25" t="n">
-        <v>2022.30720416664</v>
+        <v>2078.072421801568</v>
       </c>
       <c r="T25" t="n">
-        <v>1785.562453280048</v>
+        <v>1841.327670914976</v>
       </c>
       <c r="U25" t="n">
-        <v>1502.800101419406</v>
+        <v>1558.565319054334</v>
       </c>
       <c r="V25" t="n">
-        <v>1228.914356358928</v>
+        <v>1284.679573993856</v>
       </c>
       <c r="W25" t="n">
-        <v>949.8446918678026</v>
+        <v>1005.609909502731</v>
       </c>
       <c r="X25" t="n">
-        <v>711.500829727486</v>
+        <v>767.2660473624142</v>
       </c>
       <c r="Y25" t="n">
-        <v>657.5991139522513</v>
+        <v>542.5303487511788</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1279.844180885054</v>
+        <v>1286.736308900907</v>
       </c>
       <c r="C26" t="n">
-        <v>869.7195901983243</v>
+        <v>1276.984871834935</v>
       </c>
       <c r="D26" t="n">
-        <v>465.2556602913849</v>
+        <v>872.5209419279953</v>
       </c>
       <c r="E26" t="n">
-        <v>465.2556602913849</v>
+        <v>872.5209419279953</v>
       </c>
       <c r="F26" t="n">
-        <v>44.22524824507241</v>
+        <v>451.4905298816828</v>
       </c>
       <c r="G26" t="n">
         <v>44.22524824507241</v>
@@ -6226,52 +6226,52 @@
         <v>44.22524824507241</v>
       </c>
       <c r="J26" t="n">
-        <v>93.33440569245113</v>
+        <v>420.1102325801803</v>
       </c>
       <c r="K26" t="n">
-        <v>187.4854023598976</v>
+        <v>886.7730129369904</v>
       </c>
       <c r="L26" t="n">
-        <v>734.7728493926688</v>
+        <v>1018.520863256045</v>
       </c>
       <c r="M26" t="n">
-        <v>1282.06029642544</v>
+        <v>1177.941853993919</v>
       </c>
       <c r="N26" t="n">
-        <v>1445.929477856395</v>
+        <v>1341.811035424874</v>
       </c>
       <c r="O26" t="n">
-        <v>1595.265718293523</v>
+        <v>1491.147275862002</v>
       </c>
       <c r="P26" t="n">
-        <v>1708.747839142704</v>
+        <v>1604.629396711184</v>
       </c>
       <c r="Q26" t="n">
-        <v>2184.752696600355</v>
+        <v>2080.634254168835</v>
       </c>
       <c r="R26" t="n">
         <v>2211.262412253621</v>
       </c>
       <c r="S26" t="n">
-        <v>2211.262412253621</v>
+        <v>2109.319505845548</v>
       </c>
       <c r="T26" t="n">
-        <v>2211.262412253621</v>
+        <v>1893.517315107272</v>
       </c>
       <c r="U26" t="n">
-        <v>2211.262412253621</v>
+        <v>1636.573863564427</v>
       </c>
       <c r="V26" t="n">
-        <v>2211.262412253621</v>
+        <v>1286.736308900907</v>
       </c>
       <c r="W26" t="n">
-        <v>2211.262412253621</v>
+        <v>1286.736308900907</v>
       </c>
       <c r="X26" t="n">
-        <v>2091.002033601454</v>
+        <v>1286.736308900907</v>
       </c>
       <c r="Y26" t="n">
-        <v>1690.065360549544</v>
+        <v>1286.736308900907</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>44.22524824507241</v>
       </c>
       <c r="I27" t="n">
-        <v>44.22524824507241</v>
+        <v>50.30404989655902</v>
       </c>
       <c r="J27" t="n">
-        <v>65.85309797174023</v>
+        <v>315.6003035978601</v>
       </c>
       <c r="K27" t="n">
-        <v>613.1405450045114</v>
+        <v>384.2184476275507</v>
       </c>
       <c r="L27" t="n">
-        <v>724.166736825195</v>
+        <v>495.2446394482344</v>
       </c>
       <c r="M27" t="n">
-        <v>861.5685975225481</v>
+        <v>632.6465001455874</v>
       </c>
       <c r="N27" t="n">
-        <v>1408.856044555319</v>
+        <v>846.257617888863</v>
       </c>
       <c r="O27" t="n">
-        <v>1534.218025303042</v>
+        <v>971.6195986365861</v>
       </c>
       <c r="P27" t="n">
-        <v>2002.070302451665</v>
+        <v>1518.907045669357</v>
       </c>
       <c r="Q27" t="n">
-        <v>2043.87677489766</v>
+        <v>1966.683675119126</v>
       </c>
       <c r="R27" t="n">
         <v>2043.87677489766</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1010.722118410672</v>
+        <v>313.0655567275329</v>
       </c>
       <c r="C28" t="n">
-        <v>839.6287459723885</v>
+        <v>141.9721842892494</v>
       </c>
       <c r="D28" t="n">
-        <v>680.1341012952985</v>
+        <v>141.9721842892494</v>
       </c>
       <c r="E28" t="n">
-        <v>519.223286163618</v>
+        <v>141.9721842892494</v>
       </c>
       <c r="F28" t="n">
-        <v>354.5921602742092</v>
+        <v>141.9721842892494</v>
       </c>
       <c r="G28" t="n">
-        <v>187.9980217423859</v>
+        <v>140.8359904041037</v>
       </c>
       <c r="H28" t="n">
-        <v>44.22524824507241</v>
+        <v>140.8359904041037</v>
       </c>
       <c r="I28" t="n">
         <v>44.22524824507241</v>
@@ -6390,7 +6390,7 @@
         <v>333.0612245260185</v>
       </c>
       <c r="L28" t="n">
-        <v>688.5835996786923</v>
+        <v>688.5835996786918</v>
       </c>
       <c r="M28" t="n">
         <v>1078.67110081947</v>
@@ -6408,28 +6408,28 @@
         <v>2211.262412253621</v>
       </c>
       <c r="R28" t="n">
-        <v>2155.497194618692</v>
+        <v>2211.262412253621</v>
       </c>
       <c r="S28" t="n">
-        <v>2155.497194618692</v>
+        <v>2036.307336171966</v>
       </c>
       <c r="T28" t="n">
-        <v>2155.497194618692</v>
+        <v>1799.562585285374</v>
       </c>
       <c r="U28" t="n">
-        <v>1872.734842758051</v>
+        <v>1516.800233424733</v>
       </c>
       <c r="V28" t="n">
-        <v>1872.734842758051</v>
+        <v>1242.914488364255</v>
       </c>
       <c r="W28" t="n">
-        <v>1661.501385556268</v>
+        <v>963.8448238731291</v>
       </c>
       <c r="X28" t="n">
-        <v>1423.157523415952</v>
+        <v>725.5009617328126</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.421824804716</v>
+        <v>500.7652631215773</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>454.3498389318023</v>
+        <v>1483.296135442782</v>
       </c>
       <c r="C29" t="n">
-        <v>44.22524824507241</v>
+        <v>1073.171544756052</v>
       </c>
       <c r="D29" t="n">
-        <v>44.22524824507241</v>
+        <v>668.7076148491128</v>
       </c>
       <c r="E29" t="n">
-        <v>44.22524824507241</v>
+        <v>668.7076148491128</v>
       </c>
       <c r="F29" t="n">
-        <v>44.22524824507241</v>
+        <v>451.4905298816828</v>
       </c>
       <c r="G29" t="n">
         <v>44.22524824507241</v>
@@ -6463,52 +6463,52 @@
         <v>44.22524824507241</v>
       </c>
       <c r="J29" t="n">
-        <v>93.33440569245113</v>
+        <v>420.1102325801803</v>
       </c>
       <c r="K29" t="n">
-        <v>640.6218527252223</v>
+        <v>967.3976796129514</v>
       </c>
       <c r="L29" t="n">
-        <v>1187.909299757993</v>
+        <v>1099.145529932006</v>
       </c>
       <c r="M29" t="n">
-        <v>1347.330290495868</v>
+        <v>1258.566520669881</v>
       </c>
       <c r="N29" t="n">
-        <v>1879.101175651467</v>
+        <v>1422.435702100835</v>
       </c>
       <c r="O29" t="n">
-        <v>2028.437416088595</v>
+        <v>1901.441749012455</v>
       </c>
       <c r="P29" t="n">
-        <v>2141.919536937777</v>
+        <v>2014.923869861636</v>
       </c>
       <c r="Q29" t="n">
-        <v>2207.629921244976</v>
+        <v>2080.634254168835</v>
       </c>
       <c r="R29" t="n">
         <v>2211.262412253621</v>
       </c>
       <c r="S29" t="n">
-        <v>2211.262412253621</v>
+        <v>2109.319505845548</v>
       </c>
       <c r="T29" t="n">
-        <v>2211.262412253621</v>
+        <v>1893.517315107272</v>
       </c>
       <c r="U29" t="n">
-        <v>2211.262412253621</v>
+        <v>1893.517315107272</v>
       </c>
       <c r="V29" t="n">
-        <v>2049.911390344081</v>
+        <v>1893.517315107272</v>
       </c>
       <c r="W29" t="n">
-        <v>1666.151089479249</v>
+        <v>1893.517315107272</v>
       </c>
       <c r="X29" t="n">
-        <v>1265.507691648202</v>
+        <v>1893.517315107272</v>
       </c>
       <c r="Y29" t="n">
-        <v>864.5710185962918</v>
+        <v>1893.517315107272</v>
       </c>
     </row>
     <row r="30">
@@ -6542,16 +6542,16 @@
         <v>50.30404989655902</v>
       </c>
       <c r="J30" t="n">
-        <v>71.93189962322683</v>
+        <v>315.6003035978601</v>
       </c>
       <c r="K30" t="n">
-        <v>140.5500436529175</v>
+        <v>862.8877506306312</v>
       </c>
       <c r="L30" t="n">
-        <v>251.5762354736011</v>
+        <v>1016.485074106417</v>
       </c>
       <c r="M30" t="n">
-        <v>798.8636825063722</v>
+        <v>1153.88693480377</v>
       </c>
       <c r="N30" t="n">
         <v>1300.760915092663</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1107.332860569703</v>
+        <v>546.543885104588</v>
       </c>
       <c r="C31" t="n">
-        <v>936.2394881314196</v>
+        <v>375.4505126663045</v>
       </c>
       <c r="D31" t="n">
-        <v>776.7448434543296</v>
+        <v>375.4505126663045</v>
       </c>
       <c r="E31" t="n">
-        <v>615.8340283226491</v>
+        <v>375.4505126663045</v>
       </c>
       <c r="F31" t="n">
-        <v>451.2029024332404</v>
+        <v>210.8193867768958</v>
       </c>
       <c r="G31" t="n">
-        <v>284.6087639014171</v>
+        <v>44.22524824507241</v>
       </c>
       <c r="H31" t="n">
-        <v>140.8359904041037</v>
+        <v>44.22524824507241</v>
       </c>
       <c r="I31" t="n">
         <v>44.22524824507241</v>
@@ -6645,28 +6645,28 @@
         <v>2211.262412253621</v>
       </c>
       <c r="R31" t="n">
-        <v>2155.497194618692</v>
+        <v>2211.262412253621</v>
       </c>
       <c r="S31" t="n">
-        <v>1980.542118537038</v>
+        <v>2211.262412253621</v>
       </c>
       <c r="T31" t="n">
-        <v>1980.542118537038</v>
+        <v>1974.517661367028</v>
       </c>
       <c r="U31" t="n">
-        <v>1980.542118537038</v>
+        <v>1691.755309506387</v>
       </c>
       <c r="V31" t="n">
-        <v>1980.542118537038</v>
+        <v>1417.869564445909</v>
       </c>
       <c r="W31" t="n">
-        <v>1758.112127715299</v>
+        <v>1138.799899954784</v>
       </c>
       <c r="X31" t="n">
-        <v>1519.768265574983</v>
+        <v>900.456037814467</v>
       </c>
       <c r="Y31" t="n">
-        <v>1295.032566963748</v>
+        <v>734.2435914986323</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1694.184396368158</v>
+        <v>858.8137688387418</v>
       </c>
       <c r="C32" t="n">
-        <v>1284.059805681428</v>
+        <v>448.6891781520119</v>
       </c>
       <c r="D32" t="n">
-        <v>879.5958757744881</v>
+        <v>44.22524824507241</v>
       </c>
       <c r="E32" t="n">
-        <v>465.2556602913849</v>
+        <v>44.22524824507241</v>
       </c>
       <c r="F32" t="n">
         <v>44.22524824507241</v>
@@ -6700,52 +6700,52 @@
         <v>44.22524824507241</v>
       </c>
       <c r="J32" t="n">
-        <v>93.33440569245113</v>
+        <v>420.1102325801803</v>
       </c>
       <c r="K32" t="n">
-        <v>187.4854023598976</v>
+        <v>967.3976796129514</v>
       </c>
       <c r="L32" t="n">
-        <v>711.711204148596</v>
+        <v>1428.815336406498</v>
       </c>
       <c r="M32" t="n">
-        <v>871.1321948864702</v>
+        <v>1588.236327144372</v>
       </c>
       <c r="N32" t="n">
-        <v>1035.001376317425</v>
+        <v>1752.105508575327</v>
       </c>
       <c r="O32" t="n">
-        <v>1184.337616754553</v>
+        <v>1901.441749012455</v>
       </c>
       <c r="P32" t="n">
-        <v>1731.625063787324</v>
+        <v>2014.923869861636</v>
       </c>
       <c r="Q32" t="n">
-        <v>2207.629921244976</v>
+        <v>2080.634254168835</v>
       </c>
       <c r="R32" t="n">
         <v>2211.262412253621</v>
       </c>
       <c r="S32" t="n">
-        <v>2211.262412253621</v>
+        <v>2109.319505845548</v>
       </c>
       <c r="T32" t="n">
-        <v>2211.262412253621</v>
+        <v>2109.319505845548</v>
       </c>
       <c r="U32" t="n">
-        <v>2211.262412253621</v>
+        <v>2109.319505845548</v>
       </c>
       <c r="V32" t="n">
-        <v>2211.262412253621</v>
+        <v>2070.615019386189</v>
       </c>
       <c r="W32" t="n">
-        <v>2211.262412253621</v>
+        <v>2070.615019386189</v>
       </c>
       <c r="X32" t="n">
-        <v>2211.262412253621</v>
+        <v>1669.971621555141</v>
       </c>
       <c r="Y32" t="n">
-        <v>2104.405576032647</v>
+        <v>1269.034948503231</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>44.22524824507241</v>
       </c>
       <c r="I33" t="n">
-        <v>44.22524824507241</v>
+        <v>50.30404989655902</v>
       </c>
       <c r="J33" t="n">
-        <v>65.85309797174023</v>
+        <v>315.6003035978601</v>
       </c>
       <c r="K33" t="n">
-        <v>134.4712420014309</v>
+        <v>384.2184476275507</v>
       </c>
       <c r="L33" t="n">
-        <v>267.4238115243795</v>
+        <v>495.2446394482344</v>
       </c>
       <c r="M33" t="n">
-        <v>814.7112585571507</v>
+        <v>632.6465001455874</v>
       </c>
       <c r="N33" t="n">
-        <v>1361.998705589922</v>
+        <v>779.5204804344803</v>
       </c>
       <c r="O33" t="n">
-        <v>1909.286152622693</v>
+        <v>971.6195986365861</v>
       </c>
       <c r="P33" t="n">
-        <v>2002.070302451665</v>
+        <v>1518.907045669357</v>
       </c>
       <c r="Q33" t="n">
-        <v>2043.87677489766</v>
+        <v>1966.683675119126</v>
       </c>
       <c r="R33" t="n">
         <v>2043.87677489766</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1107.332860569703</v>
+        <v>500.7652631215773</v>
       </c>
       <c r="C34" t="n">
-        <v>936.2394881314196</v>
+        <v>500.7652631215773</v>
       </c>
       <c r="D34" t="n">
-        <v>776.7448434543296</v>
+        <v>500.7652631215773</v>
       </c>
       <c r="E34" t="n">
-        <v>615.8340283226491</v>
+        <v>500.7652631215773</v>
       </c>
       <c r="F34" t="n">
-        <v>451.2029024332404</v>
+        <v>336.1341372321685</v>
       </c>
       <c r="G34" t="n">
-        <v>284.6087639014171</v>
+        <v>169.5399987003452</v>
       </c>
       <c r="H34" t="n">
         <v>140.8359904041037</v>
@@ -6858,13 +6858,13 @@
         <v>44.22524824507241</v>
       </c>
       <c r="J34" t="n">
-        <v>103.7815510246445</v>
+        <v>103.7815510246446</v>
       </c>
       <c r="K34" t="n">
-        <v>333.0612245260185</v>
+        <v>333.0612245260186</v>
       </c>
       <c r="L34" t="n">
-        <v>688.5835996786918</v>
+        <v>688.5835996786919</v>
       </c>
       <c r="M34" t="n">
         <v>1078.67110081947</v>
@@ -6882,28 +6882,28 @@
         <v>2211.262412253621</v>
       </c>
       <c r="R34" t="n">
-        <v>2155.497194618692</v>
+        <v>2211.262412253621</v>
       </c>
       <c r="S34" t="n">
-        <v>1980.542118537038</v>
+        <v>2036.307336171966</v>
       </c>
       <c r="T34" t="n">
-        <v>1980.542118537038</v>
+        <v>1799.562585285374</v>
       </c>
       <c r="U34" t="n">
-        <v>1697.779766676397</v>
+        <v>1516.800233424733</v>
       </c>
       <c r="V34" t="n">
-        <v>1423.894021615919</v>
+        <v>1242.914488364255</v>
       </c>
       <c r="W34" t="n">
-        <v>1423.894021615919</v>
+        <v>963.8448238731291</v>
       </c>
       <c r="X34" t="n">
-        <v>1423.894021615919</v>
+        <v>725.5009617328126</v>
       </c>
       <c r="Y34" t="n">
-        <v>1295.032566963748</v>
+        <v>500.7652631215773</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1801.041232589131</v>
+        <v>1175.521399095174</v>
       </c>
       <c r="C35" t="n">
-        <v>1390.916641902401</v>
+        <v>1175.521399095174</v>
       </c>
       <c r="D35" t="n">
-        <v>1286.861157411099</v>
+        <v>1175.521399095174</v>
       </c>
       <c r="E35" t="n">
-        <v>872.5209419279953</v>
+        <v>761.1811836120711</v>
       </c>
       <c r="F35" t="n">
-        <v>451.4905298816828</v>
+        <v>340.1507715657586</v>
       </c>
       <c r="G35" t="n">
-        <v>44.22524824507241</v>
+        <v>340.1507715657586</v>
       </c>
       <c r="H35" t="n">
         <v>44.22524824507241</v>
@@ -6937,52 +6937,52 @@
         <v>44.22524824507241</v>
       </c>
       <c r="J35" t="n">
-        <v>93.33440569245113</v>
+        <v>420.1102325801803</v>
       </c>
       <c r="K35" t="n">
-        <v>187.4854023598976</v>
+        <v>514.2612292476267</v>
       </c>
       <c r="L35" t="n">
-        <v>734.7728493926688</v>
+        <v>646.0090795666816</v>
       </c>
       <c r="M35" t="n">
-        <v>1282.06029642544</v>
+        <v>805.4300703045558</v>
       </c>
       <c r="N35" t="n">
-        <v>1829.347743458211</v>
+        <v>969.2992517355106</v>
       </c>
       <c r="O35" t="n">
-        <v>2028.437416088595</v>
+        <v>1118.635492172639</v>
       </c>
       <c r="P35" t="n">
-        <v>2141.919536937777</v>
+        <v>1604.629396711184</v>
       </c>
       <c r="Q35" t="n">
-        <v>2207.629921244976</v>
+        <v>2080.634254168835</v>
       </c>
       <c r="R35" t="n">
         <v>2211.262412253621</v>
       </c>
       <c r="S35" t="n">
-        <v>2211.262412253621</v>
+        <v>2109.319505845548</v>
       </c>
       <c r="T35" t="n">
-        <v>2211.262412253621</v>
+        <v>1893.517315107272</v>
       </c>
       <c r="U35" t="n">
-        <v>2211.262412253621</v>
+        <v>1893.517315107272</v>
       </c>
       <c r="V35" t="n">
-        <v>2211.262412253621</v>
+        <v>1585.742578759664</v>
       </c>
       <c r="W35" t="n">
-        <v>2211.262412253621</v>
+        <v>1585.742578759664</v>
       </c>
       <c r="X35" t="n">
-        <v>2211.262412253621</v>
+        <v>1585.742578759664</v>
       </c>
       <c r="Y35" t="n">
-        <v>2211.262412253621</v>
+        <v>1585.742578759664</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>44.22524824507241</v>
       </c>
       <c r="I36" t="n">
-        <v>44.22524824507241</v>
+        <v>50.30404989655902</v>
       </c>
       <c r="J36" t="n">
-        <v>65.85309797174023</v>
+        <v>315.6003035978601</v>
       </c>
       <c r="K36" t="n">
-        <v>134.4712420014309</v>
+        <v>450.9555850819336</v>
       </c>
       <c r="L36" t="n">
-        <v>245.4974338221145</v>
+        <v>561.9817769026172</v>
       </c>
       <c r="M36" t="n">
-        <v>792.7848808548856</v>
+        <v>699.3836375999701</v>
       </c>
       <c r="N36" t="n">
-        <v>1340.072327887657</v>
+        <v>846.257617888863</v>
       </c>
       <c r="O36" t="n">
-        <v>1887.359774920428</v>
+        <v>971.6195986365861</v>
       </c>
       <c r="P36" t="n">
-        <v>2002.070302451665</v>
+        <v>1518.907045669357</v>
       </c>
       <c r="Q36" t="n">
-        <v>2043.87677489766</v>
+        <v>1966.683675119126</v>
       </c>
       <c r="R36" t="n">
         <v>2043.87677489766</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>257.3003390926045</v>
+        <v>313.0655567275329</v>
       </c>
       <c r="C37" t="n">
-        <v>86.20696665432104</v>
+        <v>313.0655567275329</v>
       </c>
       <c r="D37" t="n">
-        <v>86.20696665432104</v>
+        <v>313.0655567275329</v>
       </c>
       <c r="E37" t="n">
-        <v>44.22524824507241</v>
+        <v>313.0655567275329</v>
       </c>
       <c r="F37" t="n">
-        <v>44.22524824507241</v>
+        <v>313.0655567275329</v>
       </c>
       <c r="G37" t="n">
-        <v>44.22524824507241</v>
+        <v>187.9980217423859</v>
       </c>
       <c r="H37" t="n">
         <v>44.22524824507241</v>
@@ -7119,28 +7119,28 @@
         <v>2211.262412253621</v>
       </c>
       <c r="R37" t="n">
-        <v>2155.497194618692</v>
+        <v>2211.262412253621</v>
       </c>
       <c r="S37" t="n">
-        <v>1980.542118537038</v>
+        <v>2036.307336171966</v>
       </c>
       <c r="T37" t="n">
-        <v>1743.797367650446</v>
+        <v>1799.562585285374</v>
       </c>
       <c r="U37" t="n">
-        <v>1461.035015789804</v>
+        <v>1516.800233424733</v>
       </c>
       <c r="V37" t="n">
-        <v>1187.149270729326</v>
+        <v>1242.914488364255</v>
       </c>
       <c r="W37" t="n">
-        <v>908.0796062382008</v>
+        <v>963.8448238731291</v>
       </c>
       <c r="X37" t="n">
-        <v>669.7357440978842</v>
+        <v>725.5009617328126</v>
       </c>
       <c r="Y37" t="n">
-        <v>445.0000454866489</v>
+        <v>500.7652631215773</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>868.6900544149056</v>
+        <v>676.0844858423128</v>
       </c>
       <c r="C38" t="n">
-        <v>458.5654637281757</v>
+        <v>676.0844858423128</v>
       </c>
       <c r="D38" t="n">
-        <v>458.5654637281757</v>
+        <v>271.6205559353733</v>
       </c>
       <c r="E38" t="n">
-        <v>44.22524824507241</v>
+        <v>271.6205559353733</v>
       </c>
       <c r="F38" t="n">
-        <v>44.22524824507241</v>
+        <v>271.6205559353733</v>
       </c>
       <c r="G38" t="n">
-        <v>44.22524824507241</v>
+        <v>271.6205559353733</v>
       </c>
       <c r="H38" t="n">
         <v>44.22524824507241</v>
@@ -7174,25 +7174,25 @@
         <v>44.22524824507241</v>
       </c>
       <c r="J38" t="n">
-        <v>93.33440569245113</v>
+        <v>420.1102325801803</v>
       </c>
       <c r="K38" t="n">
-        <v>187.4854023598976</v>
+        <v>514.2612292476267</v>
       </c>
       <c r="L38" t="n">
-        <v>611.5917446210915</v>
+        <v>646.0090795666816</v>
       </c>
       <c r="M38" t="n">
-        <v>771.0127353589656</v>
+        <v>805.4300703045558</v>
       </c>
       <c r="N38" t="n">
-        <v>1318.300182391737</v>
+        <v>969.2992517355106</v>
       </c>
       <c r="O38" t="n">
-        <v>1467.636422828865</v>
+        <v>1118.635492172639</v>
       </c>
       <c r="P38" t="n">
-        <v>2014.923869861636</v>
+        <v>1604.629396711184</v>
       </c>
       <c r="Q38" t="n">
         <v>2080.634254168835</v>
@@ -7210,16 +7210,16 @@
         <v>2211.262412253621</v>
       </c>
       <c r="V38" t="n">
-        <v>2063.608207996137</v>
+        <v>1861.424857590102</v>
       </c>
       <c r="W38" t="n">
-        <v>1679.847907131305</v>
+        <v>1477.66455672527</v>
       </c>
       <c r="X38" t="n">
-        <v>1679.847907131305</v>
+        <v>1077.021158894223</v>
       </c>
       <c r="Y38" t="n">
-        <v>1278.911234079395</v>
+        <v>676.0844858423128</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>861.3503990242292</v>
+        <v>693.9647616682687</v>
       </c>
       <c r="C39" t="n">
-        <v>727.3553277731748</v>
+        <v>559.9696904172145</v>
       </c>
       <c r="D39" t="n">
-        <v>610.4581699925673</v>
+        <v>443.0725326366069</v>
       </c>
       <c r="E39" t="n">
-        <v>489.9653539848953</v>
+        <v>322.5797166289349</v>
       </c>
       <c r="F39" t="n">
-        <v>381.0054741673998</v>
+        <v>213.6198368114394</v>
       </c>
       <c r="G39" t="n">
-        <v>274.7981368130372</v>
+        <v>107.4124994570768</v>
       </c>
       <c r="H39" t="n">
-        <v>211.6108856010328</v>
+        <v>44.22524824507241</v>
       </c>
       <c r="I39" t="n">
-        <v>211.6108856010328</v>
+        <v>50.30404989655902</v>
       </c>
       <c r="J39" t="n">
-        <v>233.2387353277006</v>
+        <v>315.6003035978601</v>
       </c>
       <c r="K39" t="n">
-        <v>301.8568793573913</v>
+        <v>862.8877506306312</v>
       </c>
       <c r="L39" t="n">
-        <v>412.8830711780749</v>
+        <v>1016.485074106417</v>
       </c>
       <c r="M39" t="n">
-        <v>550.2849318754279</v>
+        <v>1153.88693480377</v>
       </c>
       <c r="N39" t="n">
-        <v>697.1589121643208</v>
+        <v>1300.760915092663</v>
       </c>
       <c r="O39" t="n">
-        <v>1244.446359197092</v>
+        <v>1426.122895840386</v>
       </c>
       <c r="P39" t="n">
-        <v>1763.485782803852</v>
+        <v>1518.907045669357</v>
       </c>
       <c r="Q39" t="n">
-        <v>2211.262412253621</v>
+        <v>1966.683675119126</v>
       </c>
       <c r="R39" t="n">
-        <v>2211.262412253621</v>
+        <v>2043.87677489766</v>
       </c>
       <c r="S39" t="n">
-        <v>2117.812110824289</v>
+        <v>1950.426473468328</v>
       </c>
       <c r="T39" t="n">
-        <v>1961.625380912453</v>
+        <v>1794.239743556492</v>
       </c>
       <c r="U39" t="n">
-        <v>1764.326068427731</v>
+        <v>1596.94043107177</v>
       </c>
       <c r="V39" t="n">
-        <v>1550.614541420764</v>
+        <v>1383.228904064804</v>
       </c>
       <c r="W39" t="n">
-        <v>1337.381373157093</v>
+        <v>1169.995735801132</v>
       </c>
       <c r="X39" t="n">
-        <v>1161.055391295986</v>
+        <v>993.6697539400253</v>
       </c>
       <c r="Y39" t="n">
-        <v>1001.653431659816</v>
+        <v>834.2677943038553</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1107.332860569703</v>
+        <v>488.0206328091873</v>
       </c>
       <c r="C40" t="n">
-        <v>936.2394881314196</v>
+        <v>316.9272603709038</v>
       </c>
       <c r="D40" t="n">
-        <v>776.7448434543296</v>
+        <v>316.9272603709038</v>
       </c>
       <c r="E40" t="n">
-        <v>615.8340283226491</v>
+        <v>316.9272603709038</v>
       </c>
       <c r="F40" t="n">
-        <v>451.2029024332404</v>
+        <v>152.2961344814951</v>
       </c>
       <c r="G40" t="n">
-        <v>284.6087639014171</v>
+        <v>44.22524824507241</v>
       </c>
       <c r="H40" t="n">
-        <v>140.8359904041037</v>
+        <v>44.22524824507241</v>
       </c>
       <c r="I40" t="n">
         <v>44.22524824507241</v>
@@ -7356,28 +7356,28 @@
         <v>2211.262412253621</v>
       </c>
       <c r="R40" t="n">
-        <v>2155.497194618692</v>
+        <v>2211.262412253621</v>
       </c>
       <c r="S40" t="n">
-        <v>1980.542118537038</v>
+        <v>2211.262412253621</v>
       </c>
       <c r="T40" t="n">
-        <v>1743.797367650446</v>
+        <v>1974.517661367028</v>
       </c>
       <c r="U40" t="n">
-        <v>1743.797367650446</v>
+        <v>1691.755309506387</v>
       </c>
       <c r="V40" t="n">
-        <v>1743.797367650446</v>
+        <v>1417.869564445909</v>
       </c>
       <c r="W40" t="n">
-        <v>1743.797367650446</v>
+        <v>1138.799899954784</v>
       </c>
       <c r="X40" t="n">
-        <v>1519.768265574983</v>
+        <v>900.456037814467</v>
       </c>
       <c r="Y40" t="n">
-        <v>1295.032566963748</v>
+        <v>675.7203392032317</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1696.985748097828</v>
+        <v>1468.615753437871</v>
       </c>
       <c r="C41" t="n">
-        <v>1286.861157411099</v>
+        <v>1058.491162751141</v>
       </c>
       <c r="D41" t="n">
-        <v>1286.861157411099</v>
+        <v>754.4909870488619</v>
       </c>
       <c r="E41" t="n">
-        <v>872.5209419279953</v>
+        <v>340.1507715657586</v>
       </c>
       <c r="F41" t="n">
-        <v>451.4905298816828</v>
+        <v>340.1507715657586</v>
       </c>
       <c r="G41" t="n">
-        <v>44.22524824507241</v>
+        <v>340.1507715657586</v>
       </c>
       <c r="H41" t="n">
         <v>44.22524824507241</v>
@@ -7411,52 +7411,52 @@
         <v>44.22524824507241</v>
       </c>
       <c r="J41" t="n">
-        <v>93.33440569245113</v>
+        <v>420.1102325801803</v>
       </c>
       <c r="K41" t="n">
-        <v>187.4854023598976</v>
+        <v>514.2612292476267</v>
       </c>
       <c r="L41" t="n">
-        <v>319.2332526789526</v>
+        <v>734.1392210041513</v>
       </c>
       <c r="M41" t="n">
-        <v>866.5206997117238</v>
+        <v>1281.426668036922</v>
       </c>
       <c r="N41" t="n">
-        <v>1341.811035424874</v>
+        <v>1445.295849467877</v>
       </c>
       <c r="O41" t="n">
-        <v>1491.147275862002</v>
+        <v>1594.632089905005</v>
       </c>
       <c r="P41" t="n">
-        <v>1604.629396711184</v>
+        <v>2141.919536937776</v>
       </c>
       <c r="Q41" t="n">
-        <v>2080.634254168835</v>
+        <v>2207.629921244975</v>
       </c>
       <c r="R41" t="n">
-        <v>2211.262412253621</v>
+        <v>2211.26241225362</v>
       </c>
       <c r="S41" t="n">
-        <v>2211.262412253621</v>
+        <v>2109.319505845548</v>
       </c>
       <c r="T41" t="n">
-        <v>2211.262412253621</v>
+        <v>2109.319505845548</v>
       </c>
       <c r="U41" t="n">
-        <v>2211.262412253621</v>
+        <v>1852.376054302702</v>
       </c>
       <c r="V41" t="n">
-        <v>2211.262412253621</v>
+        <v>1852.376054302702</v>
       </c>
       <c r="W41" t="n">
-        <v>2211.262412253621</v>
+        <v>1468.615753437871</v>
       </c>
       <c r="X41" t="n">
-        <v>2211.262412253621</v>
+        <v>1468.615753437871</v>
       </c>
       <c r="Y41" t="n">
-        <v>2107.206927762318</v>
+        <v>1468.615753437871</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>44.22524824507241</v>
       </c>
       <c r="J42" t="n">
-        <v>65.85309797174023</v>
+        <v>309.5215019463735</v>
       </c>
       <c r="K42" t="n">
-        <v>134.4712420014309</v>
+        <v>378.1396459760641</v>
       </c>
       <c r="L42" t="n">
-        <v>681.758689034202</v>
+        <v>489.1658377967477</v>
       </c>
       <c r="M42" t="n">
-        <v>1229.046136066973</v>
+        <v>753.4734680598917</v>
       </c>
       <c r="N42" t="n">
-        <v>1776.333583099744</v>
+        <v>1300.760915092663</v>
       </c>
       <c r="O42" t="n">
-        <v>1901.695563847467</v>
+        <v>1426.122895840386</v>
       </c>
       <c r="P42" t="n">
-        <v>1994.479713676439</v>
+        <v>1518.907045669357</v>
       </c>
       <c r="Q42" t="n">
-        <v>2036.286186122434</v>
+        <v>1966.683675119126</v>
       </c>
       <c r="R42" t="n">
         <v>2043.87677489766</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>586.9513017880109</v>
+        <v>627.8355887446975</v>
       </c>
       <c r="C43" t="n">
-        <v>415.8579293497274</v>
+        <v>627.8355887446975</v>
       </c>
       <c r="D43" t="n">
-        <v>256.3632846726375</v>
+        <v>468.3409440676075</v>
       </c>
       <c r="E43" t="n">
-        <v>95.45246954095694</v>
+        <v>307.430128935927</v>
       </c>
       <c r="F43" t="n">
-        <v>95.45246954095694</v>
+        <v>307.430128935927</v>
       </c>
       <c r="G43" t="n">
-        <v>44.22524824507241</v>
+        <v>140.8359904041037</v>
       </c>
       <c r="H43" t="n">
-        <v>44.22524824507241</v>
+        <v>140.8359904041037</v>
       </c>
       <c r="I43" t="n">
         <v>44.22524824507241</v>
       </c>
       <c r="J43" t="n">
-        <v>103.7815510246446</v>
+        <v>103.7815510246445</v>
       </c>
       <c r="K43" t="n">
-        <v>333.0612245260186</v>
+        <v>333.0612245260185</v>
       </c>
       <c r="L43" t="n">
-        <v>688.5835996786919</v>
+        <v>688.5835996786917</v>
       </c>
       <c r="M43" t="n">
         <v>1078.67110081947</v>
@@ -7590,31 +7590,31 @@
         <v>2091.875729714676</v>
       </c>
       <c r="Q43" t="n">
-        <v>2211.262412253621</v>
+        <v>2211.26241225362</v>
       </c>
       <c r="R43" t="n">
-        <v>2211.262412253621</v>
+        <v>2211.26241225362</v>
       </c>
       <c r="S43" t="n">
-        <v>2036.307336171966</v>
+        <v>2114.332617302539</v>
       </c>
       <c r="T43" t="n">
-        <v>1799.562585285374</v>
+        <v>2114.332617302539</v>
       </c>
       <c r="U43" t="n">
-        <v>1516.800233424733</v>
+        <v>1831.570265441897</v>
       </c>
       <c r="V43" t="n">
-        <v>1516.800233424733</v>
+        <v>1557.684520381419</v>
       </c>
       <c r="W43" t="n">
-        <v>1237.730568933607</v>
+        <v>1278.614855890294</v>
       </c>
       <c r="X43" t="n">
-        <v>999.3867067932906</v>
+        <v>1040.270993749977</v>
       </c>
       <c r="Y43" t="n">
-        <v>774.6510081820553</v>
+        <v>815.5352951387418</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1801.041232589131</v>
+        <v>1585.239041850854</v>
       </c>
       <c r="C44" t="n">
-        <v>1390.916641902401</v>
+        <v>1286.861157411099</v>
       </c>
       <c r="D44" t="n">
         <v>1286.861157411099</v>
@@ -7639,61 +7639,61 @@
         <v>451.4905298816828</v>
       </c>
       <c r="G44" t="n">
-        <v>44.22524824507241</v>
+        <v>44.22524824507239</v>
       </c>
       <c r="H44" t="n">
-        <v>44.22524824507241</v>
+        <v>44.22524824507239</v>
       </c>
       <c r="I44" t="n">
-        <v>44.22524824507241</v>
+        <v>44.22524824507239</v>
       </c>
       <c r="J44" t="n">
-        <v>93.33440569245113</v>
+        <v>420.1102325801803</v>
       </c>
       <c r="K44" t="n">
-        <v>187.4854023598976</v>
+        <v>967.3976796129512</v>
       </c>
       <c r="L44" t="n">
-        <v>734.7728493926687</v>
+        <v>1099.145529932006</v>
       </c>
       <c r="M44" t="n">
-        <v>1282.06029642544</v>
+        <v>1258.56652066988</v>
       </c>
       <c r="N44" t="n">
-        <v>1829.347743458211</v>
+        <v>1422.435702100835</v>
       </c>
       <c r="O44" t="n">
-        <v>2028.437416088595</v>
+        <v>1969.723149133606</v>
       </c>
       <c r="P44" t="n">
-        <v>2141.919536937776</v>
+        <v>2083.205269982787</v>
       </c>
       <c r="Q44" t="n">
-        <v>2207.629921244975</v>
+        <v>2148.915654289986</v>
       </c>
       <c r="R44" t="n">
-        <v>2211.26241225362</v>
+        <v>2211.262412253619</v>
       </c>
       <c r="S44" t="n">
-        <v>2211.26241225362</v>
+        <v>2211.262412253619</v>
       </c>
       <c r="T44" t="n">
-        <v>2211.26241225362</v>
+        <v>1995.460221515343</v>
       </c>
       <c r="U44" t="n">
-        <v>2211.26241225362</v>
+        <v>1995.460221515343</v>
       </c>
       <c r="V44" t="n">
-        <v>2211.26241225362</v>
+        <v>1995.460221515343</v>
       </c>
       <c r="W44" t="n">
-        <v>2211.26241225362</v>
+        <v>1995.460221515343</v>
       </c>
       <c r="X44" t="n">
-        <v>2211.26241225362</v>
+        <v>1995.460221515343</v>
       </c>
       <c r="Y44" t="n">
-        <v>2211.26241225362</v>
+        <v>1995.460221515343</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>107.4124994570768</v>
       </c>
       <c r="H45" t="n">
-        <v>44.22524824507241</v>
+        <v>44.22524824507239</v>
       </c>
       <c r="I45" t="n">
-        <v>44.22524824507241</v>
+        <v>50.304049896559</v>
       </c>
       <c r="J45" t="n">
-        <v>309.5215019463735</v>
+        <v>315.60030359786</v>
       </c>
       <c r="K45" t="n">
-        <v>378.1396459760641</v>
+        <v>469.1976270736461</v>
       </c>
       <c r="L45" t="n">
-        <v>925.4270930088352</v>
+        <v>1016.485074106417</v>
       </c>
       <c r="M45" t="n">
-        <v>1472.714540041606</v>
+        <v>1153.88693480377</v>
       </c>
       <c r="N45" t="n">
-        <v>1619.588520330499</v>
+        <v>1300.760915092663</v>
       </c>
       <c r="O45" t="n">
-        <v>1744.950501078222</v>
+        <v>1426.122895840386</v>
       </c>
       <c r="P45" t="n">
-        <v>1837.734650907194</v>
+        <v>1518.907045669357</v>
       </c>
       <c r="Q45" t="n">
-        <v>2043.87677489766</v>
+        <v>1966.683675119126</v>
       </c>
       <c r="R45" t="n">
         <v>2043.87677489766</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>700.3552063815351</v>
+        <v>673.0346074405652</v>
       </c>
       <c r="C46" t="n">
-        <v>529.2618339432516</v>
+        <v>673.0346074405652</v>
       </c>
       <c r="D46" t="n">
-        <v>369.7671892661617</v>
+        <v>513.5399627634752</v>
       </c>
       <c r="E46" t="n">
-        <v>208.8563741344811</v>
+        <v>352.6291476317946</v>
       </c>
       <c r="F46" t="n">
-        <v>44.22524824507241</v>
+        <v>187.9980217423858</v>
       </c>
       <c r="G46" t="n">
-        <v>44.22524824507241</v>
+        <v>187.9980217423858</v>
       </c>
       <c r="H46" t="n">
-        <v>44.22524824507241</v>
+        <v>44.22524824507239</v>
       </c>
       <c r="I46" t="n">
-        <v>44.22524824507241</v>
+        <v>44.22524824507239</v>
       </c>
       <c r="J46" t="n">
-        <v>103.7815510246445</v>
+        <v>103.7815510246434</v>
       </c>
       <c r="K46" t="n">
-        <v>333.0612245260185</v>
+        <v>333.0612245260174</v>
       </c>
       <c r="L46" t="n">
-        <v>688.5835996786917</v>
+        <v>688.5835996786907</v>
       </c>
       <c r="M46" t="n">
-        <v>1078.67110081947</v>
+        <v>1078.671100819469</v>
       </c>
       <c r="N46" t="n">
-        <v>1457.935971750512</v>
+        <v>1457.935971750511</v>
       </c>
       <c r="O46" t="n">
-        <v>1808.40900556478</v>
+        <v>1808.409005564779</v>
       </c>
       <c r="P46" t="n">
-        <v>2091.875729714676</v>
+        <v>2091.875729714675</v>
       </c>
       <c r="Q46" t="n">
-        <v>2211.26241225362</v>
+        <v>2211.262412253619</v>
       </c>
       <c r="R46" t="n">
-        <v>2211.26241225362</v>
+        <v>2211.262412253619</v>
       </c>
       <c r="S46" t="n">
-        <v>2036.307336171966</v>
+        <v>2208.576680490954</v>
       </c>
       <c r="T46" t="n">
-        <v>2036.307336171966</v>
+        <v>1971.831929604362</v>
       </c>
       <c r="U46" t="n">
-        <v>1904.089883078735</v>
+        <v>1689.069577743721</v>
       </c>
       <c r="V46" t="n">
-        <v>1630.204138018257</v>
+        <v>1415.183832683243</v>
       </c>
       <c r="W46" t="n">
-        <v>1351.134473527131</v>
+        <v>1136.114168192117</v>
       </c>
       <c r="X46" t="n">
-        <v>1112.790611386815</v>
+        <v>897.7703060518005</v>
       </c>
       <c r="Y46" t="n">
-        <v>888.0549127755795</v>
+        <v>673.0346074405652</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>228.5110173896169</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>296.4405581451824</v>
       </c>
       <c r="P2" t="n">
         <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8063,10 +8063,10 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>557.0846165901669</v>
       </c>
       <c r="M3" t="n">
-        <v>175.2980289959031</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
         <v>575.2569637637755</v>
@@ -8078,10 +8078,10 @@
         <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,13 +8218,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>292.3871721926164</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>337.5073157537831</v>
       </c>
       <c r="N5" t="n">
         <v>614.9758611266449</v>
@@ -8239,7 +8239,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
@@ -8306,10 +8306,10 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>232.5803491573233</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>564.4415429491204</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>231.0841246958424</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
         <v>615.3537948270711</v>
@@ -8467,16 +8467,16 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>337.4068669225207</v>
       </c>
       <c r="P8" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8537,10 +8537,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>70.59911775623679</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
@@ -8555,7 +8555,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>82.82041537394237</v>
+        <v>165.6695765208638</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>432.1958439951384</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>409.1127301664757</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>405.3976004214464</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>417.3545373516827</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>446.8108790239027</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>13.5311868844814</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>18.66945891416648</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>476.4099526115285</v>
       </c>
       <c r="L12" t="n">
-        <v>316.476394367302</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>364.1655799885581</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>456.3185841150943</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>19.9817458341367</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,19 +8929,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>461.7925332562006</v>
       </c>
       <c r="L14" t="n">
-        <v>212.4089867249784</v>
+        <v>432.1958439951384</v>
       </c>
       <c r="M14" t="n">
         <v>409.1127301664757</v>
       </c>
       <c r="N14" t="n">
-        <v>405.3976004214464</v>
+        <v>141.1727472467684</v>
       </c>
       <c r="O14" t="n">
-        <v>417.3545373516827</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>18.66945891416648</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>169.5339910338761</v>
+        <v>360.9849814135178</v>
       </c>
       <c r="L15" t="n">
-        <v>441.7265168147997</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>411.8099970688785</v>
       </c>
       <c r="O15" t="n">
-        <v>430.2930068010434</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>456.3185841150943</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>19.9817458341367</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,25 +9169,25 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>419.736966377491</v>
+        <v>341.7145068998303</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>391.7842992877748</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>387.2911773755721</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>414.892607009613</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681339</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>483.504346467758</v>
+        <v>483.5043464677581</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>246.2476738193901</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>459.0942395997974</v>
+        <v>373.2438758179347</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>10.88547141257337</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,22 +9409,22 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>376.2745289791552</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>66.3657824059741</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>438.1871981652423</v>
       </c>
       <c r="Q20" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>13.62525474566747</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>22.14785626491415</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>122.047442337681</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>414.0258447832506</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>404.4580472160386</v>
       </c>
       <c r="O21" t="n">
-        <v>426.1873396818668</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>10.88547141257337</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>542.4876850955627</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M23" t="n">
         <v>877.4504173780091</v>
@@ -9655,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>628.1510783507341</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>414.4388617681339</v>
+        <v>311.4478900040019</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,19 +9713,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>13.62525474566747</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>279.7899754469461</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>212.6960011817453</v>
       </c>
       <c r="R24" t="n">
         <v>88.85829947169823</v>
@@ -9874,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>376.2745289791553</v>
       </c>
       <c r="L26" t="n">
-        <v>419.7369663774911</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>391.7842992877747</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
-        <v>23.10830772183917</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>13.62525474566747</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>483.5043464677581</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>404.4580472160387</v>
+        <v>67.41124995392195</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>378.8566942622734</v>
+        <v>459.0942395997975</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>10.88547141257337</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
         <v>457.7135862276007</v>
       </c>
       <c r="L29" t="n">
-        <v>419.7369663774911</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>371.6178825501464</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>332.9998045196883</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,19 +10190,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>483.5043464677581</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>43.00114308596176</v>
       </c>
       <c r="M30" t="n">
-        <v>414.0258447832506</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>358.6093457549472</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>457.7135862276007</v>
       </c>
       <c r="L32" t="n">
-        <v>396.4423752218621</v>
+        <v>332.9998045196884</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>438.1871981652423</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>414.4388617681339</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>13.62525474566747</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>22.14785626491417</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>414.0258447832506</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>404.4580472160386</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>426.1873396818668</v>
+        <v>67.41124995392198</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>459.0942395997975</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>10.88547141257337</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>419.7369663774911</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>391.7842992877747</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>387.2911773755721</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>50.25599211440041</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>376.2745289791552</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>13.62525474566747</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>67.41124995392204</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>414.0258447832506</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>404.4580472160387</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>426.1873396818668</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>22.14785626491447</v>
+        <v>459.0942395997975</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>10.88547141257337</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>295.3116080223625</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>387.2911773755721</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>438.1871981652423</v>
+        <v>376.2745289791552</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
         <v>128.2784515920617</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>13.62525474566747</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>483.5043464677581</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>43.00114308596176</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>426.1873396818668</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>430.5608826038264</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>10.88547141257337</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>89.02034488633296</v>
       </c>
       <c r="M41" t="n">
         <v>391.7842992877747</v>
       </c>
       <c r="N41" t="n">
-        <v>314.5668225072685</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>438.1871981652422</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,19 +11138,19 @@
         <v>13.62525474566747</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>440.6679345576642</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>414.0258447832506</v>
+        <v>128.1876460260515</v>
       </c>
       <c r="N42" t="n">
-        <v>404.4580472160387</v>
+        <v>404.4580472160385</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>18.55273280169034</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>457.7135862276003</v>
       </c>
       <c r="L44" t="n">
-        <v>419.736966377491</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>391.7842992877746</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>387.291177375572</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>50.25599211439996</v>
+        <v>401.9709157531745</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>59.30734035857397</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,19 +11372,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>13.62525474566747</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>85.83755499605599</v>
       </c>
       <c r="L45" t="n">
-        <v>440.6679345576641</v>
+        <v>440.6679345576638</v>
       </c>
       <c r="M45" t="n">
-        <v>414.0258447832505</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>165.9956076206779</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>10.88547141257337</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>65.65794306195595</v>
+        <v>65.65794306195485</v>
       </c>
       <c r="K46" t="n">
         <v>208.3638319047618</v>
@@ -22549,7 +22549,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>305.9441559029069</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
@@ -22606,7 +22606,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>305.9441559029069</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22758,19 +22758,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884689</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>208.6070786176236</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>253.8805495899114</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>51.15351521861466</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22843,10 +22843,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -22953,13 +22953,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -22998,19 +22998,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.0814748004014</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>26.29791545914173</v>
       </c>
     </row>
     <row r="8">
@@ -23020,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>390.2983828659822</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -23071,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -23086,10 +23086,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>108.2757520407814</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -23190,10 +23190,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
@@ -23226,13 +23226,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>62.34208953281224</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23244,7 +23244,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300493</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.99732504248431</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>202.1582724392383</v>
       </c>
       <c r="H11" t="n">
-        <v>295.7705310992044</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>40.20632670693379</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>107.1631593534817</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>214.8428175635996</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.3959226581688</v>
@@ -23320,7 +23320,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>9.200706773811731</v>
       </c>
       <c r="F13" t="n">
-        <v>79.08313330106031</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.0510235443431</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>143.4270840994813</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>99.33835950151285</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>60.73028694681985</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>175.3460544540683</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,19 +23497,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>16.60137921447682</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>233.8937010486501</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>403.4664492046432</v>
       </c>
       <c r="H14" t="n">
         <v>295.7705310992044</v>
@@ -23551,16 +23551,16 @@
         <v>214.8428175635996</v>
       </c>
       <c r="U14" t="n">
-        <v>254.3959226581688</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -23661,19 +23661,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>23.08018466629696</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.0510235443431</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2.42441676251056</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>60.73028694681985</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>175.3460544540683</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>297.4043609614808</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>318.0514568028248</v>
       </c>
       <c r="H17" t="n">
         <v>292.9662680874794</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>100.9234773439921</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>213.6441688308935</v>
@@ -23791,10 +23791,10 @@
         <v>254.3740170274168</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -23895,16 +23895,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>62.84879220837122</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>39.16795499521909</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.9281971465051</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>297.4043609614803</v>
+        <v>101.6060107009876</v>
       </c>
       <c r="H20" t="n">
         <v>292.9662680874794</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>100.9234773439921</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>213.6441688308935</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>254.3740170274168</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.9281971465051</v>
       </c>
       <c r="H22" t="n">
-        <v>3.162439025708636</v>
+        <v>129.7274733324644</v>
       </c>
       <c r="I22" t="n">
-        <v>95.64463473744092</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>55.20756545857928</v>
       </c>
       <c r="S22" t="n">
-        <v>173.2055253208379</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>234.3773033777264</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9347283420349</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>292.9662680874794</v>
       </c>
       <c r="I23" t="n">
-        <v>29.64986633739581</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,19 +24259,19 @@
         <v>100.9234773439921</v>
       </c>
       <c r="T23" t="n">
-        <v>213.6441688308935</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.3740170274168</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>288.8742564123859</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>84.17247230415893</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>62.53224029662898</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.9281971465051</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3350457623403</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>95.64463473744092</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>55.20756545857928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>169.1256430076405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>396.3694220845499</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>403.1926288202443</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>292.9662680874794</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>100.9234773439921</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>213.6441688308935</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.3740170274168</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>277.5791889870915</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.8033652002108</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3350457623403</v>
       </c>
       <c r="I28" t="n">
-        <v>95.64463473744092</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>55.20756545857928</v>
       </c>
       <c r="S28" t="n">
-        <v>173.2055253208379</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>234.3773033777264</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>67.15784521644937</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24685,16 +24685,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>201.7751938080936</v>
       </c>
       <c r="G29" t="n">
-        <v>403.1926288202443</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>292.9662680874794</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>100.9234773439921</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>213.6441688308935</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>254.3740170274168</v>
       </c>
       <c r="V29" t="n">
-        <v>186.6016674264394</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3350457623403</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>95.64463473744092</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>55.20756545857928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>173.2055253208379</v>
       </c>
       <c r="T31" t="n">
-        <v>234.3773033777264</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9347283420349</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>56.07327693269298</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>57.93801977244664</v>
       </c>
     </row>
     <row r="32">
@@ -24925,10 +24925,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>403.1926288202443</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>100.9234773439921</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>213.6441688308935</v>
@@ -24976,16 +24976,16 @@
         <v>254.3740170274168</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>308.0217375221182</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>291.1390384626271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>113.9180775490612</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>55.20756545857928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>234.3773033777264</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>94.91550151947341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,10 +25156,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>297.4043609614804</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>403.1926288202443</v>
       </c>
       <c r="H35" t="n">
-        <v>292.9662680874794</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>29.64986633739581</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>100.9234773439921</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>213.6441688308935</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>254.3740170274168</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>41.64219013275215</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>117.7398057552076</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9281971465051</v>
+        <v>41.11133751120956</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3350457623403</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>95.64463473744092</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>55.20756545857928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
@@ -25408,7 +25408,7 @@
         <v>403.1926288202443</v>
       </c>
       <c r="H38" t="n">
-        <v>292.9662680874794</v>
+        <v>67.84491347408147</v>
       </c>
       <c r="I38" t="n">
         <v>29.64986633739581</v>
@@ -25450,13 +25450,13 @@
         <v>254.3740170274168</v>
       </c>
       <c r="V38" t="n">
-        <v>200.1615169019747</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.93801977244668</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3350457623403</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>95.64463473744092</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>55.20756545857928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>173.2055253208379</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9347283420349</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>14.17161246420508</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>99.45911666261378</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>403.1926288202443</v>
       </c>
       <c r="H41" t="n">
-        <v>292.9662680874794</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>29.64986633739581</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>100.9234773439921</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>213.6441688308935</v>
       </c>
       <c r="U41" t="n">
-        <v>254.3740170274168</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>293.9123766750007</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>114.2132480635794</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>142.3350457623403</v>
       </c>
       <c r="I43" t="n">
-        <v>95.64463473744092</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>55.20756545857928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>77.24502831926726</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>234.3773033777264</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>110.6292391845051</v>
       </c>
       <c r="D44" t="n">
-        <v>297.4043609614808</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>100.9234773439921</v>
       </c>
       <c r="T44" t="n">
-        <v>213.6441688308935</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>254.3740170274168</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>164.9281971465051</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3350457623403</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>95.64463473744092</v>
@@ -26073,13 +26073,13 @@
         <v>55.20756545857928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>170.5466508757996</v>
       </c>
       <c r="T46" t="n">
-        <v>234.3773033777264</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>149.0394497797363</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>533732.6223392506</v>
+        <v>533732.6223392505</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>533732.6223392505</v>
+        <v>533732.6223392506</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>531703.2875543361</v>
+        <v>531703.2875543359</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>531703.2875543361</v>
+        <v>531703.287554336</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>544564.1964569181</v>
+        <v>544564.196456918</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>544564.1964569181</v>
+        <v>544564.196456918</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>544564.1964569179</v>
+        <v>544564.196456918</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>544564.1964569179</v>
+        <v>544564.1964569181</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>544564.1964569181</v>
+        <v>544564.1964569179</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>544564.1964569181</v>
+        <v>544564.196456918</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>544564.1964569179</v>
+        <v>544564.196456918</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>544564.1964569183</v>
+        <v>544564.1964569178</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>544564.196456918</v>
+        <v>544564.1964569179</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>199771.9648954105</v>
       </c>
       <c r="E2" t="n">
-        <v>210711.7654609552</v>
+        <v>210711.7654609553</v>
       </c>
       <c r="F2" t="n">
         <v>210711.7654609553</v>
       </c>
       <c r="G2" t="n">
+        <v>218249.4563985528</v>
+      </c>
+      <c r="H2" t="n">
         <v>218249.4563985529</v>
       </c>
-      <c r="H2" t="n">
-        <v>218249.456398553</v>
-      </c>
       <c r="I2" t="n">
-        <v>302917.0120581992</v>
+        <v>302917.0120581995</v>
       </c>
       <c r="J2" t="n">
-        <v>218249.456398553</v>
+        <v>218249.4563985528</v>
       </c>
       <c r="K2" t="n">
-        <v>218249.456398553</v>
+        <v>218249.4563985529</v>
       </c>
       <c r="L2" t="n">
         <v>218249.456398553</v>
       </c>
       <c r="M2" t="n">
+        <v>218249.4563985528</v>
+      </c>
+      <c r="N2" t="n">
         <v>218249.4563985529</v>
       </c>
-      <c r="N2" t="n">
-        <v>218249.456398553</v>
-      </c>
       <c r="O2" t="n">
-        <v>218249.456398553</v>
+        <v>218249.4563985529</v>
       </c>
       <c r="P2" t="n">
-        <v>218249.4563985529</v>
+        <v>218249.4563985528</v>
       </c>
     </row>
     <row r="3">
@@ -26380,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>61385.50344554232</v>
+        <v>61385.50344554235</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5.155921098776163e-11</v>
       </c>
       <c r="I3" t="n">
         <v>138827.6666963676</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7400.507419694478</v>
+        <v>7400.507419694506</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26432,34 +26432,34 @@
         <v>40492.51758850084</v>
       </c>
       <c r="G4" t="n">
+        <v>35784.08648896337</v>
+      </c>
+      <c r="H4" t="n">
         <v>35784.08648896335</v>
-      </c>
-      <c r="H4" t="n">
-        <v>35784.08648896336</v>
       </c>
       <c r="I4" t="n">
         <v>64826.45548712702</v>
       </c>
       <c r="J4" t="n">
-        <v>35784.08648896337</v>
+        <v>35784.08648896335</v>
       </c>
       <c r="K4" t="n">
-        <v>35784.08648896335</v>
+        <v>35784.08648896336</v>
       </c>
       <c r="L4" t="n">
         <v>35784.08648896335</v>
       </c>
       <c r="M4" t="n">
+        <v>35784.08648896336</v>
+      </c>
+      <c r="N4" t="n">
+        <v>35784.08648896337</v>
+      </c>
+      <c r="O4" t="n">
         <v>35784.08648896335</v>
       </c>
-      <c r="N4" t="n">
-        <v>35784.08648896336</v>
-      </c>
-      <c r="O4" t="n">
-        <v>35784.08648896336</v>
-      </c>
       <c r="P4" t="n">
-        <v>35784.08648896334</v>
+        <v>35784.08648896332</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>41465.35034699791</v>
       </c>
       <c r="P5" t="n">
-        <v>41465.35034699791</v>
+        <v>41465.3503469979</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-108584.5525919375</v>
+        <v>-109262.0814513316</v>
       </c>
       <c r="C6" t="n">
-        <v>66370.95730117647</v>
+        <v>65693.42844178242</v>
       </c>
       <c r="D6" t="n">
-        <v>66370.9573011765</v>
+        <v>65693.42844178245</v>
       </c>
       <c r="E6" t="n">
-        <v>-102621.6335418682</v>
+        <v>-103247.0681128548</v>
       </c>
       <c r="F6" t="n">
-        <v>132108.480602713</v>
+        <v>131483.0460317264</v>
       </c>
       <c r="G6" t="n">
-        <v>79614.51611704929</v>
+        <v>79024.97531243203</v>
       </c>
       <c r="H6" t="n">
-        <v>141000.0195625917</v>
+        <v>140410.4787579744</v>
       </c>
       <c r="I6" t="n">
-        <v>26056.0744492091</v>
+        <v>25869.71248106678</v>
       </c>
       <c r="J6" t="n">
-        <v>141000.0195625917</v>
+        <v>140410.4787579744</v>
       </c>
       <c r="K6" t="n">
-        <v>141000.0195625917</v>
+        <v>140410.4787579745</v>
       </c>
       <c r="L6" t="n">
-        <v>141000.0195625917</v>
+        <v>140410.4787579745</v>
       </c>
       <c r="M6" t="n">
-        <v>141000.0195625916</v>
+        <v>140410.4787579744</v>
       </c>
       <c r="N6" t="n">
-        <v>141000.0195625917</v>
+        <v>140410.4787579745</v>
       </c>
       <c r="O6" t="n">
-        <v>133599.5121428972</v>
+        <v>133009.97133828</v>
       </c>
       <c r="P6" t="n">
-        <v>141000.0195625917</v>
+        <v>140410.4787579744</v>
       </c>
     </row>
   </sheetData>
@@ -26804,7 +26804,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="G4" t="n">
-        <v>552.8156030634051</v>
+        <v>552.8156030634052</v>
       </c>
       <c r="H4" t="n">
         <v>552.8156030634052</v>
@@ -26828,10 +26828,10 @@
         <v>552.8156030634052</v>
       </c>
       <c r="O4" t="n">
-        <v>552.8156030634052</v>
+        <v>552.8156030634051</v>
       </c>
       <c r="P4" t="n">
-        <v>552.8156030634051</v>
+        <v>552.8156030634049</v>
       </c>
     </row>
   </sheetData>
@@ -27026,10 +27026,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>30.75203269337953</v>
+        <v>30.75203269337965</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1.91095222871593e-13</v>
       </c>
       <c r="I4" t="n">
         <v>522.0635703700256</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>30.75203269337953</v>
+        <v>30.75203269337965</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>30.75203269337953</v>
+        <v>30.75203269337965</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.91095222871593e-13</v>
       </c>
     </row>
   </sheetData>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N2" t="n">
-        <v>135.5987266329976</v>
-      </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="P2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34783,10 +34783,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="M3" t="n">
-        <v>117.7337452574857</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>522.0635703700256</v>
@@ -34798,10 +34798,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,13 +34938,13 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>203.2507825193993</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700256</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="N5" t="n">
         <v>522.0635703700256</v>
@@ -34959,7 +34959,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
@@ -35026,10 +35026,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>179.3869557635733</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="L8" t="n">
-        <v>135.5987266329976</v>
       </c>
       <c r="M8" t="n">
         <v>522.0635703700256</v>
@@ -35187,16 +35187,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35257,10 +35257,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>14.48459394538775</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35275,7 +35275,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>109.1854620663744</v>
+        <v>192.0346232132958</v>
       </c>
       <c r="K11" t="n">
         <v>60.27103711382499</v>
       </c>
       <c r="L11" t="n">
+        <v>89.86772637488717</v>
+      </c>
+      <c r="M11" t="n">
+        <v>112.9508402035499</v>
+      </c>
+      <c r="N11" t="n">
+        <v>116.6659699485792</v>
+      </c>
+      <c r="O11" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M11" t="n">
+      <c r="P11" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N11" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O11" t="n">
-        <v>104.7090330183429</v>
-      </c>
-      <c r="P11" t="n">
-        <v>75.25269134612282</v>
-      </c>
       <c r="Q11" t="n">
-        <v>36.80460452707217</v>
+        <v>451.2434662952061</v>
       </c>
       <c r="R11" t="n">
-        <v>114.7472647075803</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.095999519871292</v>
       </c>
       <c r="J12" t="n">
         <v>254.1343320570691</v>
       </c>
       <c r="K12" t="n">
-        <v>45.65361775849703</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L12" t="n">
-        <v>396.8134479225278</v>
+        <v>80.33705355522588</v>
       </c>
       <c r="M12" t="n">
         <v>101.6682710426784</v>
       </c>
       <c r="N12" t="n">
-        <v>110.253573301147</v>
+        <v>474.4191532897052</v>
       </c>
       <c r="O12" t="n">
         <v>91.77056356898225</v>
       </c>
       <c r="P12" t="n">
-        <v>522.0635703700256</v>
+        <v>65.74498625493123</v>
       </c>
       <c r="Q12" t="n">
         <v>433.5981584304049</v>
       </c>
       <c r="R12" t="n">
-        <v>68.87655363756153</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,19 +35649,19 @@
         <v>26.365046692432</v>
       </c>
       <c r="K14" t="n">
-        <v>60.27103711382499</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L14" t="n">
-        <v>302.2767130998656</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M14" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N14" t="n">
-        <v>522.0635703700256</v>
+        <v>257.8387171953476</v>
       </c>
       <c r="O14" t="n">
-        <v>522.0635703700256</v>
+        <v>104.7090330183429</v>
       </c>
       <c r="P14" t="n">
         <v>75.25269134612282</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>8.004631072591046</v>
+        <v>254.1343320570691</v>
       </c>
       <c r="K15" t="n">
-        <v>215.1876087923731</v>
+        <v>406.6385991720148</v>
       </c>
       <c r="L15" t="n">
-        <v>522.0635703700256</v>
+        <v>80.33705355522588</v>
       </c>
       <c r="M15" t="n">
         <v>101.6682710426784</v>
       </c>
       <c r="N15" t="n">
-        <v>110.253573301147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O15" t="n">
-        <v>522.0635703700256</v>
+        <v>91.77056356898225</v>
       </c>
       <c r="P15" t="n">
-        <v>522.0635703700256</v>
+        <v>65.74498625493123</v>
       </c>
       <c r="Q15" t="n">
-        <v>23.52729277002734</v>
+        <v>433.5981584304049</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>68.87655363756153</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>95.10201683580455</v>
       </c>
       <c r="L17" t="n">
-        <v>552.8156030634051</v>
+        <v>474.7931435857444</v>
       </c>
       <c r="M17" t="n">
-        <v>161.0313037756305</v>
+        <v>552.8156030634052</v>
       </c>
       <c r="N17" t="n">
-        <v>165.5244256878331</v>
+        <v>552.8156030634052</v>
       </c>
       <c r="O17" t="n">
         <v>150.8446873102304</v>
       </c>
       <c r="P17" t="n">
-        <v>529.5210119077759</v>
+        <v>114.6284048981629</v>
       </c>
       <c r="Q17" t="n">
-        <v>480.8129873309611</v>
+        <v>66.37412556282715</v>
       </c>
       <c r="R17" t="n">
-        <v>3.669182837015001</v>
+        <v>131.9476344290767</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>21.84631285522001</v>
       </c>
       <c r="K18" t="n">
-        <v>552.8156030634051</v>
+        <v>552.8156030634052</v>
       </c>
       <c r="L18" t="n">
         <v>112.147668505741</v>
@@ -35974,19 +35974,19 @@
         <v>138.7897582801546</v>
       </c>
       <c r="N18" t="n">
-        <v>394.6052296667567</v>
+        <v>148.3575558473665</v>
       </c>
       <c r="O18" t="n">
         <v>126.6282633815385</v>
       </c>
       <c r="P18" t="n">
-        <v>552.8156030634051</v>
+        <v>466.9652392815424</v>
       </c>
       <c r="Q18" t="n">
-        <v>42.2287600464599</v>
+        <v>452.2996257068374</v>
       </c>
       <c r="R18" t="n">
-        <v>77.97282805912485</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36129,22 +36129,22 @@
         <v>133.0786366859141</v>
       </c>
       <c r="M20" t="n">
-        <v>537.3058327547857</v>
+        <v>161.0313037756305</v>
       </c>
       <c r="N20" t="n">
         <v>165.5244256878331</v>
       </c>
       <c r="O20" t="n">
-        <v>150.8446873102304</v>
+        <v>217.2104697162045</v>
       </c>
       <c r="P20" t="n">
-        <v>114.6284048981629</v>
+        <v>552.8156030634052</v>
       </c>
       <c r="Q20" t="n">
         <v>480.8129873309611</v>
       </c>
       <c r="R20" t="n">
-        <v>131.9476344290767</v>
+        <v>3.669182837015001</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>6.14020368837031</v>
       </c>
       <c r="J21" t="n">
-        <v>43.99416912013417</v>
+        <v>267.9760138396981</v>
       </c>
       <c r="K21" t="n">
-        <v>69.31125659564714</v>
+        <v>191.3586989333281</v>
       </c>
       <c r="L21" t="n">
         <v>112.147668505741</v>
       </c>
       <c r="M21" t="n">
-        <v>552.8156030634052</v>
+        <v>138.7897582801546</v>
       </c>
       <c r="N21" t="n">
         <v>552.8156030634052</v>
       </c>
       <c r="O21" t="n">
-        <v>552.8156030634052</v>
+        <v>126.6282633815385</v>
       </c>
       <c r="P21" t="n">
         <v>93.7213634636077</v>
       </c>
       <c r="Q21" t="n">
-        <v>42.2287600464599</v>
+        <v>452.2996257068374</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>77.97282805912485</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>49.60520954280679</v>
+        <v>379.6818023586948</v>
       </c>
       <c r="K23" t="n">
-        <v>637.5897019313672</v>
+        <v>95.10201683580455</v>
       </c>
       <c r="L23" t="n">
-        <v>133.0786366859141</v>
+        <v>948.3533274883932</v>
       </c>
       <c r="M23" t="n">
         <v>1038.481721153639</v>
@@ -36375,13 +36375,13 @@
         <v>150.8446873102304</v>
       </c>
       <c r="P23" t="n">
-        <v>742.779483248897</v>
+        <v>114.6284048981629</v>
       </c>
       <c r="Q23" t="n">
-        <v>480.8129873309611</v>
+        <v>377.8220155668291</v>
       </c>
       <c r="R23" t="n">
-        <v>3.669182837015001</v>
+        <v>131.9476344290767</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>6.14020368837031</v>
       </c>
       <c r="J24" t="n">
-        <v>21.84631285522001</v>
+        <v>267.9760138396981</v>
       </c>
       <c r="K24" t="n">
         <v>69.31125659564714</v>
       </c>
       <c r="L24" t="n">
-        <v>391.9376439526872</v>
+        <v>836.0280225380934</v>
       </c>
       <c r="M24" t="n">
-        <v>1047.846042720154</v>
+        <v>138.7897582801546</v>
       </c>
       <c r="N24" t="n">
         <v>148.3575558473665</v>
@@ -36457,7 +36457,7 @@
         <v>93.7213634636077</v>
       </c>
       <c r="Q24" t="n">
-        <v>42.2287600464599</v>
+        <v>254.9247612282052</v>
       </c>
       <c r="R24" t="n">
         <v>77.97282805912485</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>49.60520954280679</v>
+        <v>379.6818023586948</v>
       </c>
       <c r="K26" t="n">
-        <v>95.10201683580455</v>
+        <v>471.3765458149598</v>
       </c>
       <c r="L26" t="n">
-        <v>552.8156030634052</v>
+        <v>133.0786366859141</v>
       </c>
       <c r="M26" t="n">
-        <v>552.8156030634052</v>
+        <v>161.0313037756305</v>
       </c>
       <c r="N26" t="n">
         <v>165.5244256878331</v>
@@ -36618,7 +36618,7 @@
         <v>480.8129873309611</v>
       </c>
       <c r="R26" t="n">
-        <v>26.77749055885417</v>
+        <v>131.9476344290767</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>6.14020368837031</v>
       </c>
       <c r="J27" t="n">
-        <v>21.84631285522001</v>
+        <v>267.9760138396981</v>
       </c>
       <c r="K27" t="n">
-        <v>552.8156030634052</v>
+        <v>69.31125659564714</v>
       </c>
       <c r="L27" t="n">
         <v>112.147668505741</v>
@@ -36685,19 +36685,19 @@
         <v>138.7897582801546</v>
       </c>
       <c r="N27" t="n">
-        <v>552.8156030634052</v>
+        <v>215.7688058012885</v>
       </c>
       <c r="O27" t="n">
         <v>126.6282633815385</v>
       </c>
       <c r="P27" t="n">
-        <v>472.5780577258811</v>
+        <v>552.8156030634052</v>
       </c>
       <c r="Q27" t="n">
-        <v>42.2287600464599</v>
+        <v>452.2996257068374</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>77.97282805912485</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>49.60520954280679</v>
+        <v>379.6818023586948</v>
       </c>
       <c r="K29" t="n">
         <v>552.8156030634052</v>
       </c>
       <c r="L29" t="n">
-        <v>552.8156030634052</v>
+        <v>133.0786366859141</v>
       </c>
       <c r="M29" t="n">
         <v>161.0313037756305</v>
       </c>
       <c r="N29" t="n">
-        <v>537.1423082379795</v>
+        <v>165.5244256878331</v>
       </c>
       <c r="O29" t="n">
-        <v>150.8446873102304</v>
+        <v>483.8444918299187</v>
       </c>
       <c r="P29" t="n">
         <v>114.6284048981629</v>
@@ -36855,7 +36855,7 @@
         <v>66.37412556282715</v>
       </c>
       <c r="R29" t="n">
-        <v>3.669182837015001</v>
+        <v>131.9476344290767</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>6.14020368837031</v>
       </c>
       <c r="J30" t="n">
-        <v>21.84631285522001</v>
+        <v>267.9760138396981</v>
       </c>
       <c r="K30" t="n">
-        <v>69.31125659564714</v>
+        <v>552.8156030634052</v>
       </c>
       <c r="L30" t="n">
-        <v>112.147668505741</v>
+        <v>155.1488115917028</v>
       </c>
       <c r="M30" t="n">
-        <v>552.8156030634052</v>
+        <v>138.7897582801546</v>
       </c>
       <c r="N30" t="n">
-        <v>506.9669016023137</v>
+        <v>148.3575558473665</v>
       </c>
       <c r="O30" t="n">
         <v>126.6282633815385</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>49.60520954280679</v>
+        <v>379.6818023586948</v>
       </c>
       <c r="K32" t="n">
-        <v>95.10201683580455</v>
+        <v>552.8156030634052</v>
       </c>
       <c r="L32" t="n">
-        <v>529.5210119077761</v>
+        <v>466.0784412056025</v>
       </c>
       <c r="M32" t="n">
         <v>161.0313037756305</v>
@@ -37086,13 +37086,13 @@
         <v>150.8446873102304</v>
       </c>
       <c r="P32" t="n">
-        <v>552.8156030634052</v>
+        <v>114.6284048981629</v>
       </c>
       <c r="Q32" t="n">
-        <v>480.8129873309611</v>
+        <v>66.37412556282715</v>
       </c>
       <c r="R32" t="n">
-        <v>3.669182837015001</v>
+        <v>131.9476344290767</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>6.14020368837031</v>
       </c>
       <c r="J33" t="n">
-        <v>21.84631285522001</v>
+        <v>267.9760138396981</v>
       </c>
       <c r="K33" t="n">
         <v>69.31125659564714</v>
       </c>
       <c r="L33" t="n">
-        <v>134.2955247706552</v>
+        <v>112.147668505741</v>
       </c>
       <c r="M33" t="n">
+        <v>138.7897582801546</v>
+      </c>
+      <c r="N33" t="n">
+        <v>148.3575558473665</v>
+      </c>
+      <c r="O33" t="n">
+        <v>194.0395133354604</v>
+      </c>
+      <c r="P33" t="n">
         <v>552.8156030634052</v>
       </c>
-      <c r="N33" t="n">
-        <v>552.8156030634052</v>
-      </c>
-      <c r="O33" t="n">
-        <v>552.8156030634052</v>
-      </c>
-      <c r="P33" t="n">
-        <v>93.7213634636077</v>
-      </c>
       <c r="Q33" t="n">
-        <v>42.2287600464599</v>
+        <v>452.2996257068374</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>77.97282805912485</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>49.60520954280679</v>
+        <v>379.6818023586948</v>
       </c>
       <c r="K35" t="n">
         <v>95.10201683580455</v>
       </c>
       <c r="L35" t="n">
-        <v>552.8156030634052</v>
+        <v>133.0786366859141</v>
       </c>
       <c r="M35" t="n">
-        <v>552.8156030634052</v>
+        <v>161.0313037756305</v>
       </c>
       <c r="N35" t="n">
-        <v>552.8156030634052</v>
+        <v>165.5244256878331</v>
       </c>
       <c r="O35" t="n">
-        <v>201.1006794246308</v>
+        <v>150.8446873102304</v>
       </c>
       <c r="P35" t="n">
-        <v>114.6284048981629</v>
+        <v>490.9029338773181</v>
       </c>
       <c r="Q35" t="n">
-        <v>66.37412556282715</v>
+        <v>480.8129873309611</v>
       </c>
       <c r="R35" t="n">
-        <v>3.669182837015001</v>
+        <v>131.9476344290767</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>6.14020368837031</v>
       </c>
       <c r="J36" t="n">
-        <v>21.84631285522001</v>
+        <v>267.9760138396981</v>
       </c>
       <c r="K36" t="n">
-        <v>69.31125659564714</v>
+        <v>136.7225065495692</v>
       </c>
       <c r="L36" t="n">
         <v>112.147668505741</v>
       </c>
       <c r="M36" t="n">
+        <v>138.7897582801546</v>
+      </c>
+      <c r="N36" t="n">
+        <v>148.3575558473665</v>
+      </c>
+      <c r="O36" t="n">
+        <v>126.6282633815385</v>
+      </c>
+      <c r="P36" t="n">
         <v>552.8156030634052</v>
       </c>
-      <c r="N36" t="n">
-        <v>552.8156030634052</v>
-      </c>
-      <c r="O36" t="n">
-        <v>552.8156030634052</v>
-      </c>
-      <c r="P36" t="n">
-        <v>115.8692197285222</v>
-      </c>
       <c r="Q36" t="n">
-        <v>42.2287600464599</v>
+        <v>452.2996257068374</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>77.97282805912485</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>49.60520954280679</v>
+        <v>379.6818023586948</v>
       </c>
       <c r="K38" t="n">
         <v>95.10201683580455</v>
       </c>
       <c r="L38" t="n">
-        <v>428.3902447082766</v>
+        <v>133.0786366859141</v>
       </c>
       <c r="M38" t="n">
         <v>161.0313037756305</v>
       </c>
       <c r="N38" t="n">
-        <v>552.8156030634052</v>
+        <v>165.5244256878331</v>
       </c>
       <c r="O38" t="n">
         <v>150.8446873102304</v>
       </c>
       <c r="P38" t="n">
-        <v>552.8156030634052</v>
+        <v>490.9029338773181</v>
       </c>
       <c r="Q38" t="n">
-        <v>66.37412556282715</v>
+        <v>480.8129873309611</v>
       </c>
       <c r="R38" t="n">
         <v>131.9476344290767</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>6.14020368837031</v>
       </c>
       <c r="J39" t="n">
-        <v>21.84631285522001</v>
+        <v>267.9760138396981</v>
       </c>
       <c r="K39" t="n">
-        <v>69.31125659564714</v>
+        <v>552.8156030634052</v>
       </c>
       <c r="L39" t="n">
-        <v>112.147668505741</v>
+        <v>155.1488115917028</v>
       </c>
       <c r="M39" t="n">
         <v>138.7897582801546</v>
@@ -37636,16 +37636,16 @@
         <v>148.3575558473665</v>
       </c>
       <c r="O39" t="n">
-        <v>552.8156030634052</v>
+        <v>126.6282633815385</v>
       </c>
       <c r="P39" t="n">
-        <v>524.2822460674341</v>
+        <v>93.7213634636077</v>
       </c>
       <c r="Q39" t="n">
         <v>452.2996257068374</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>77.97282805912485</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>49.60520954280679</v>
+        <v>379.6818023586948</v>
       </c>
       <c r="K41" t="n">
         <v>95.10201683580455</v>
       </c>
       <c r="L41" t="n">
-        <v>133.0786366859141</v>
+        <v>222.0989815722471</v>
       </c>
       <c r="M41" t="n">
-        <v>552.8156030634052</v>
+        <v>552.8156030634051</v>
       </c>
       <c r="N41" t="n">
-        <v>480.0912481951015</v>
+        <v>165.5244256878331</v>
       </c>
       <c r="O41" t="n">
         <v>150.8446873102304</v>
       </c>
       <c r="P41" t="n">
-        <v>114.6284048981629</v>
+        <v>552.8156030634051</v>
       </c>
       <c r="Q41" t="n">
-        <v>480.8129873309611</v>
+        <v>66.37412556282715</v>
       </c>
       <c r="R41" t="n">
-        <v>131.9476344290767</v>
+        <v>3.669182837015001</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>21.84631285522001</v>
+        <v>267.9760138396981</v>
       </c>
       <c r="K42" t="n">
         <v>69.31125659564714</v>
       </c>
       <c r="L42" t="n">
-        <v>552.8156030634052</v>
+        <v>112.147668505741</v>
       </c>
       <c r="M42" t="n">
-        <v>552.8156030634052</v>
+        <v>266.9774043062061</v>
       </c>
       <c r="N42" t="n">
-        <v>552.8156030634052</v>
+        <v>552.8156030634051</v>
       </c>
       <c r="O42" t="n">
         <v>126.6282633815385</v>
@@ -37879,10 +37879,10 @@
         <v>93.7213634636077</v>
       </c>
       <c r="Q42" t="n">
-        <v>42.2287600464599</v>
+        <v>452.2996257068374</v>
       </c>
       <c r="R42" t="n">
-        <v>7.667261389116966</v>
+        <v>77.97282805912485</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>49.60520954280679</v>
+        <v>379.6818023586948</v>
       </c>
       <c r="K44" t="n">
-        <v>95.10201683580455</v>
+        <v>552.8156030634049</v>
       </c>
       <c r="L44" t="n">
-        <v>552.8156030634051</v>
+        <v>133.0786366859141</v>
       </c>
       <c r="M44" t="n">
-        <v>552.8156030634051</v>
+        <v>161.0313037756305</v>
       </c>
       <c r="N44" t="n">
-        <v>552.8156030634051</v>
+        <v>165.5244256878331</v>
       </c>
       <c r="O44" t="n">
-        <v>201.1006794246303</v>
+        <v>552.8156030634049</v>
       </c>
       <c r="P44" t="n">
         <v>114.6284048981629</v>
@@ -38040,7 +38040,7 @@
         <v>66.37412556282715</v>
       </c>
       <c r="R44" t="n">
-        <v>3.669182837015001</v>
+        <v>62.97652319558897</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>6.14020368837031</v>
       </c>
       <c r="J45" t="n">
         <v>267.9760138396981</v>
       </c>
       <c r="K45" t="n">
-        <v>69.31125659564714</v>
+        <v>155.1488115917031</v>
       </c>
       <c r="L45" t="n">
-        <v>552.8156030634051</v>
+        <v>552.8156030634049</v>
       </c>
       <c r="M45" t="n">
-        <v>552.8156030634051</v>
+        <v>138.7897582801546</v>
       </c>
       <c r="N45" t="n">
         <v>148.3575558473665</v>
@@ -38116,10 +38116,10 @@
         <v>93.7213634636077</v>
       </c>
       <c r="Q45" t="n">
-        <v>208.2243676671378</v>
+        <v>452.2996257068374</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>77.97282805912485</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>60.15788159552736</v>
+        <v>60.15788159552626</v>
       </c>
       <c r="K46" t="n">
         <v>231.5956297993677</v>
